--- a/Iran-Gillan-Masouleh.xlsx
+++ b/Iran-Gillan-Masouleh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lploughe/Documents/GitHub/iran_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TRU\Iran_data\CSV\Iran_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA38CEF-966F-3949-8BF2-F73D1E25EE43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D8FDE3-7A93-4411-A99A-115FBB8CBFD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exclosure area1" sheetId="1" r:id="rId1"/>
@@ -2967,30 +2967,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3009,29 +2985,29 @@
     <xf numFmtId="15" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3069,6 +3045,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3078,8 +3063,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3099,23 +3096,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3182,6 +3164,24 @@
     </xf>
     <xf numFmtId="15" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -3550,101 +3550,101 @@
       <selection pane="bottomRight" activeCell="AR10" sqref="AR1:AR65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="89" customWidth="1"/>
-    <col min="2" max="3" width="5.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="134" customWidth="1"/>
-    <col min="5" max="39" width="5.6640625" style="5" customWidth="1"/>
-    <col min="40" max="40" width="6.6640625" style="89" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" style="89" customWidth="1"/>
+    <col min="2" max="3" width="5.6328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="5.6328125" style="134" customWidth="1"/>
+    <col min="5" max="39" width="5.6328125" style="5" customWidth="1"/>
+    <col min="40" max="40" width="6.6328125" style="89" customWidth="1"/>
     <col min="41" max="41" width="6" style="5" customWidth="1"/>
-    <col min="42" max="42" width="4.5" style="89" customWidth="1"/>
-    <col min="43" max="43" width="8.1640625" style="89" customWidth="1"/>
-    <col min="44" max="16384" width="9.1640625" style="89"/>
+    <col min="42" max="42" width="4.453125" style="89" customWidth="1"/>
+    <col min="43" max="43" width="8.1796875" style="89" customWidth="1"/>
+    <col min="44" max="16384" width="9.1796875" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="217" t="s">
+    <row r="1" spans="1:44" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="209" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="217"/>
-      <c r="O1" s="217"/>
-      <c r="P1" s="217"/>
-      <c r="Q1" s="217"/>
-      <c r="R1" s="217"/>
-      <c r="S1" s="217"/>
-      <c r="T1" s="217"/>
-      <c r="U1" s="217"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="209"/>
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
     </row>
-    <row r="2" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="214" t="s">
+    <row r="2" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="215"/>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="218" t="s">
+      <c r="B2" s="207"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
-      <c r="M2" s="218"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="218"/>
-      <c r="P2" s="218"/>
-      <c r="Q2" s="218"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="218"/>
-      <c r="T2" s="218"/>
-      <c r="U2" s="218"/>
-      <c r="V2" s="218"/>
-      <c r="W2" s="218"/>
-      <c r="X2" s="218"/>
-      <c r="Y2" s="218"/>
-      <c r="Z2" s="218"/>
-      <c r="AA2" s="218"/>
-      <c r="AB2" s="218"/>
-      <c r="AC2" s="218"/>
-      <c r="AD2" s="218"/>
-      <c r="AE2" s="218"/>
-      <c r="AF2" s="218"/>
-      <c r="AG2" s="218"/>
-      <c r="AH2" s="218"/>
-      <c r="AI2" s="218"/>
-      <c r="AJ2" s="218"/>
-      <c r="AK2" s="218"/>
-      <c r="AL2" s="218"/>
-      <c r="AM2" s="218"/>
-      <c r="AN2" s="218"/>
-      <c r="AO2" s="218"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="210"/>
+      <c r="T2" s="210"/>
+      <c r="U2" s="210"/>
+      <c r="V2" s="210"/>
+      <c r="W2" s="210"/>
+      <c r="X2" s="210"/>
+      <c r="Y2" s="210"/>
+      <c r="Z2" s="210"/>
+      <c r="AA2" s="210"/>
+      <c r="AB2" s="210"/>
+      <c r="AC2" s="210"/>
+      <c r="AD2" s="210"/>
+      <c r="AE2" s="210"/>
+      <c r="AF2" s="210"/>
+      <c r="AG2" s="210"/>
+      <c r="AH2" s="210"/>
+      <c r="AI2" s="210"/>
+      <c r="AJ2" s="210"/>
+      <c r="AK2" s="210"/>
+      <c r="AL2" s="210"/>
+      <c r="AM2" s="210"/>
+      <c r="AN2" s="210"/>
+      <c r="AO2" s="210"/>
     </row>
-    <row r="3" spans="1:44" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="214" t="s">
+    <row r="3" spans="1:44" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="206" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="215"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="219">
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="211">
         <v>41056</v>
       </c>
       <c r="H3" s="212"/>
@@ -3682,15 +3682,15 @@
       <c r="AN3" s="212"/>
       <c r="AO3" s="212"/>
     </row>
-    <row r="4" spans="1:44" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="214" t="s">
+    <row r="4" spans="1:44" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="215"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="216"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="208"/>
       <c r="G4" s="212" t="s">
         <v>37</v>
       </c>
@@ -3729,15 +3729,15 @@
       <c r="AN4" s="212"/>
       <c r="AO4" s="212"/>
     </row>
-    <row r="5" spans="1:44" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="214" t="s">
+    <row r="5" spans="1:44" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="206" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="215"/>
-      <c r="C5" s="215"/>
-      <c r="D5" s="215"/>
-      <c r="E5" s="215"/>
-      <c r="F5" s="216"/>
+      <c r="B5" s="207"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="208"/>
       <c r="G5" s="212" t="s">
         <v>9</v>
       </c>
@@ -3776,30 +3776,30 @@
       <c r="AN5" s="212"/>
       <c r="AO5" s="212"/>
     </row>
-    <row r="6" spans="1:44" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="206" t="s">
+    <row r="6" spans="1:44" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="206"/>
-      <c r="C6" s="206"/>
-      <c r="D6" s="206"/>
-      <c r="E6" s="206"/>
-      <c r="F6" s="206"/>
-      <c r="G6" s="206"/>
-      <c r="H6" s="206"/>
-      <c r="I6" s="206"/>
-      <c r="J6" s="206"/>
-      <c r="K6" s="206"/>
-      <c r="L6" s="206"/>
-      <c r="M6" s="206"/>
-      <c r="N6" s="206"/>
-      <c r="O6" s="206"/>
-      <c r="P6" s="206"/>
-      <c r="Q6" s="206"/>
-      <c r="R6" s="206"/>
-      <c r="S6" s="206"/>
-      <c r="T6" s="206"/>
-      <c r="U6" s="206"/>
+      <c r="B6" s="214"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="214"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="214"/>
+      <c r="I6" s="214"/>
+      <c r="J6" s="214"/>
+      <c r="K6" s="214"/>
+      <c r="L6" s="214"/>
+      <c r="M6" s="214"/>
+      <c r="N6" s="214"/>
+      <c r="O6" s="214"/>
+      <c r="P6" s="214"/>
+      <c r="Q6" s="214"/>
+      <c r="R6" s="214"/>
+      <c r="S6" s="214"/>
+      <c r="T6" s="214"/>
+      <c r="U6" s="214"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
@@ -3819,30 +3819,30 @@
       <c r="AL6" s="6"/>
       <c r="AM6" s="6"/>
     </row>
-    <row r="7" spans="1:44" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="208" t="s">
+    <row r="7" spans="1:44" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="216" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="208"/>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
-      <c r="H7" s="208"/>
-      <c r="I7" s="208"/>
-      <c r="J7" s="208"/>
-      <c r="K7" s="208"/>
-      <c r="L7" s="208"/>
-      <c r="M7" s="208"/>
-      <c r="N7" s="208"/>
-      <c r="O7" s="208"/>
-      <c r="P7" s="208"/>
-      <c r="Q7" s="208"/>
-      <c r="R7" s="208"/>
-      <c r="S7" s="208"/>
-      <c r="T7" s="208"/>
-      <c r="U7" s="208"/>
+      <c r="B7" s="216"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
+      <c r="H7" s="216"/>
+      <c r="I7" s="216"/>
+      <c r="J7" s="216"/>
+      <c r="K7" s="216"/>
+      <c r="L7" s="216"/>
+      <c r="M7" s="216"/>
+      <c r="N7" s="216"/>
+      <c r="O7" s="216"/>
+      <c r="P7" s="216"/>
+      <c r="Q7" s="216"/>
+      <c r="R7" s="216"/>
+      <c r="S7" s="216"/>
+      <c r="T7" s="216"/>
+      <c r="U7" s="216"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
@@ -3862,30 +3862,30 @@
       <c r="AL7" s="7"/>
       <c r="AM7" s="7"/>
     </row>
-    <row r="8" spans="1:44" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="206" t="s">
+    <row r="8" spans="1:44" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="214" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
-      <c r="F8" s="206"/>
-      <c r="G8" s="206"/>
-      <c r="H8" s="206"/>
-      <c r="I8" s="206"/>
-      <c r="J8" s="206"/>
-      <c r="K8" s="206"/>
-      <c r="L8" s="206"/>
-      <c r="M8" s="206"/>
-      <c r="N8" s="206"/>
-      <c r="O8" s="206"/>
-      <c r="P8" s="206"/>
-      <c r="Q8" s="206"/>
-      <c r="R8" s="206"/>
-      <c r="S8" s="206"/>
-      <c r="T8" s="206"/>
-      <c r="U8" s="206"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
+      <c r="G8" s="214"/>
+      <c r="H8" s="214"/>
+      <c r="I8" s="214"/>
+      <c r="J8" s="214"/>
+      <c r="K8" s="214"/>
+      <c r="L8" s="214"/>
+      <c r="M8" s="214"/>
+      <c r="N8" s="214"/>
+      <c r="O8" s="214"/>
+      <c r="P8" s="214"/>
+      <c r="Q8" s="214"/>
+      <c r="R8" s="214"/>
+      <c r="S8" s="214"/>
+      <c r="T8" s="214"/>
+      <c r="U8" s="214"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
@@ -3905,30 +3905,30 @@
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
     </row>
-    <row r="9" spans="1:44" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="207" t="s">
+    <row r="9" spans="1:44" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="215" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="207"/>
-      <c r="C9" s="207"/>
-      <c r="D9" s="207"/>
-      <c r="E9" s="207"/>
-      <c r="F9" s="207"/>
-      <c r="G9" s="207"/>
-      <c r="H9" s="207"/>
-      <c r="I9" s="207"/>
-      <c r="J9" s="207"/>
-      <c r="K9" s="207"/>
-      <c r="L9" s="207"/>
-      <c r="M9" s="207"/>
-      <c r="N9" s="207"/>
-      <c r="O9" s="207"/>
-      <c r="P9" s="207"/>
-      <c r="Q9" s="207"/>
-      <c r="R9" s="207"/>
-      <c r="S9" s="207"/>
-      <c r="T9" s="207"/>
-      <c r="U9" s="207"/>
+      <c r="B9" s="215"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="215"/>
+      <c r="E9" s="215"/>
+      <c r="F9" s="215"/>
+      <c r="G9" s="215"/>
+      <c r="H9" s="215"/>
+      <c r="I9" s="215"/>
+      <c r="J9" s="215"/>
+      <c r="K9" s="215"/>
+      <c r="L9" s="215"/>
+      <c r="M9" s="215"/>
+      <c r="N9" s="215"/>
+      <c r="O9" s="215"/>
+      <c r="P9" s="215"/>
+      <c r="Q9" s="215"/>
+      <c r="R9" s="215"/>
+      <c r="S9" s="215"/>
+      <c r="T9" s="215"/>
+      <c r="U9" s="215"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
@@ -3948,7 +3948,7 @@
       <c r="AL9" s="8"/>
       <c r="AM9" s="8"/>
     </row>
-    <row r="10" spans="1:44" s="131" customFormat="1" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" s="131" customFormat="1" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="AR11" s="165"/>
     </row>
-    <row r="12" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="AR12" s="165"/>
     </row>
-    <row r="13" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>66</v>
       </c>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="AR13" s="165"/>
     </row>
-    <row r="14" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>73</v>
       </c>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="AR14" s="165"/>
     </row>
-    <row r="15" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>81</v>
       </c>
@@ -4724,7 +4724,7 @@
       </c>
       <c r="AR15" s="165"/>
     </row>
-    <row r="16" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>89</v>
       </c>
@@ -4853,7 +4853,7 @@
       </c>
       <c r="AR16" s="165"/>
     </row>
-    <row r="17" spans="1:44" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:44" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>97</v>
       </c>
@@ -4982,7 +4982,7 @@
       </c>
       <c r="AR17" s="165"/>
     </row>
-    <row r="18" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="AR18" s="165"/>
     </row>
-    <row r="19" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -5240,7 +5240,7 @@
       </c>
       <c r="AR19" s="165"/>
     </row>
-    <row r="20" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="AR20" s="165"/>
     </row>
-    <row r="21" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
@@ -5498,7 +5498,7 @@
       </c>
       <c r="AR21" s="165"/>
     </row>
-    <row r="22" spans="1:44" ht="13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:44" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
@@ -5627,7 +5627,7 @@
       </c>
       <c r="AR22" s="165"/>
     </row>
-    <row r="23" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="AR23" s="165"/>
     </row>
-    <row r="24" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>90</v>
       </c>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="AR24" s="165"/>
     </row>
-    <row r="25" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>98</v>
       </c>
@@ -6014,7 +6014,7 @@
       </c>
       <c r="AR25" s="165"/>
     </row>
-    <row r="26" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>106</v>
       </c>
@@ -6143,7 +6143,7 @@
       </c>
       <c r="AR26" s="165"/>
     </row>
-    <row r="27" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -6272,7 +6272,7 @@
       </c>
       <c r="AR27" s="165"/>
     </row>
-    <row r="28" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="AR28" s="165"/>
     </row>
-    <row r="29" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -6530,7 +6530,7 @@
       </c>
       <c r="AR29" s="165"/>
     </row>
-    <row r="30" spans="1:44" ht="13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:44" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>75</v>
       </c>
@@ -6659,7 +6659,7 @@
       </c>
       <c r="AR30" s="165"/>
     </row>
-    <row r="31" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>83</v>
       </c>
@@ -6788,7 +6788,7 @@
       </c>
       <c r="AR31" s="165"/>
     </row>
-    <row r="32" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>91</v>
       </c>
@@ -6917,7 +6917,7 @@
       </c>
       <c r="AR32" s="165"/>
     </row>
-    <row r="33" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>99</v>
       </c>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="AR33" s="165"/>
     </row>
-    <row r="34" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>107</v>
       </c>
@@ -7175,7 +7175,7 @@
       </c>
       <c r="AR34" s="165"/>
     </row>
-    <row r="35" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>53</v>
       </c>
@@ -7304,7 +7304,7 @@
       </c>
       <c r="AR35" s="165"/>
     </row>
-    <row r="36" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>61</v>
       </c>
@@ -7433,7 +7433,7 @@
       </c>
       <c r="AR36" s="165"/>
     </row>
-    <row r="37" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>68</v>
       </c>
@@ -7562,7 +7562,7 @@
       </c>
       <c r="AR37" s="165"/>
     </row>
-    <row r="38" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>76</v>
       </c>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="AR38" s="165"/>
     </row>
-    <row r="39" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>84</v>
       </c>
@@ -7820,7 +7820,7 @@
       </c>
       <c r="AR39" s="165"/>
     </row>
-    <row r="40" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>92</v>
       </c>
@@ -7949,7 +7949,7 @@
       </c>
       <c r="AR40" s="165"/>
     </row>
-    <row r="41" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>100</v>
       </c>
@@ -8078,7 +8078,7 @@
       </c>
       <c r="AR41" s="165"/>
     </row>
-    <row r="42" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>108</v>
       </c>
@@ -8207,7 +8207,7 @@
       </c>
       <c r="AR42" s="165"/>
     </row>
-    <row r="43" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
@@ -8336,7 +8336,7 @@
       </c>
       <c r="AR43" s="165"/>
     </row>
-    <row r="44" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>62</v>
       </c>
@@ -8465,7 +8465,7 @@
       </c>
       <c r="AR44" s="165"/>
     </row>
-    <row r="45" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
@@ -8594,7 +8594,7 @@
       </c>
       <c r="AR45" s="165"/>
     </row>
-    <row r="46" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>77</v>
       </c>
@@ -8723,7 +8723,7 @@
       </c>
       <c r="AR46" s="165"/>
     </row>
-    <row r="47" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>85</v>
       </c>
@@ -8852,7 +8852,7 @@
       </c>
       <c r="AR47" s="165"/>
     </row>
-    <row r="48" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>93</v>
       </c>
@@ -8981,7 +8981,7 @@
       </c>
       <c r="AR48" s="165"/>
     </row>
-    <row r="49" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -9110,7 +9110,7 @@
       </c>
       <c r="AR49" s="165"/>
     </row>
-    <row r="50" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>109</v>
       </c>
@@ -9239,7 +9239,7 @@
       </c>
       <c r="AR50" s="165"/>
     </row>
-    <row r="51" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
@@ -9368,7 +9368,7 @@
       </c>
       <c r="AR51" s="165"/>
     </row>
-    <row r="52" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="AR52" s="165"/>
     </row>
-    <row r="53" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>70</v>
       </c>
@@ -9626,7 +9626,7 @@
       </c>
       <c r="AR53" s="165"/>
     </row>
-    <row r="54" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -9755,7 +9755,7 @@
       </c>
       <c r="AR54" s="165"/>
     </row>
-    <row r="55" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>86</v>
       </c>
@@ -9884,7 +9884,7 @@
       </c>
       <c r="AR55" s="165"/>
     </row>
-    <row r="56" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>94</v>
       </c>
@@ -10013,7 +10013,7 @@
       </c>
       <c r="AR56" s="165"/>
     </row>
-    <row r="57" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>102</v>
       </c>
@@ -10142,7 +10142,7 @@
       </c>
       <c r="AR57" s="165"/>
     </row>
-    <row r="58" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>110</v>
       </c>
@@ -10271,7 +10271,7 @@
       </c>
       <c r="AR58" s="165"/>
     </row>
-    <row r="59" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -10400,7 +10400,7 @@
       </c>
       <c r="AR59" s="165"/>
     </row>
-    <row r="60" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
@@ -10529,7 +10529,7 @@
       </c>
       <c r="AR60" s="165"/>
     </row>
-    <row r="61" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
@@ -10658,7 +10658,7 @@
       </c>
       <c r="AR61" s="165"/>
     </row>
-    <row r="62" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>79</v>
       </c>
@@ -10787,7 +10787,7 @@
       </c>
       <c r="AR62" s="165"/>
     </row>
-    <row r="63" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>87</v>
       </c>
@@ -10916,7 +10916,7 @@
       </c>
       <c r="AR63" s="165"/>
     </row>
-    <row r="64" spans="1:44" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:44" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>95</v>
       </c>
@@ -11045,7 +11045,7 @@
       </c>
       <c r="AR64" s="165"/>
     </row>
-    <row r="65" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>103</v>
       </c>
@@ -11174,7 +11174,7 @@
       </c>
       <c r="AR65" s="165"/>
     </row>
-    <row r="66" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>111</v>
       </c>
@@ -11303,7 +11303,7 @@
       </c>
       <c r="AR66" s="165"/>
     </row>
-    <row r="67" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>57</v>
       </c>
@@ -11432,7 +11432,7 @@
       </c>
       <c r="AR67" s="165"/>
     </row>
-    <row r="68" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:44" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
@@ -11561,7 +11561,7 @@
       </c>
       <c r="AR68" s="165"/>
     </row>
-    <row r="69" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>72</v>
       </c>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="AR69" s="165"/>
     </row>
-    <row r="70" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>80</v>
       </c>
@@ -11819,7 +11819,7 @@
       </c>
       <c r="AR70" s="165"/>
     </row>
-    <row r="71" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>88</v>
       </c>
@@ -11948,7 +11948,7 @@
       </c>
       <c r="AR71" s="165"/>
     </row>
-    <row r="72" spans="1:44" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:44" ht="13" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>96</v>
       </c>
@@ -12077,7 +12077,7 @@
       </c>
       <c r="AR72" s="165"/>
     </row>
-    <row r="73" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>104</v>
       </c>
@@ -12206,7 +12206,7 @@
       </c>
       <c r="AR73" s="165"/>
     </row>
-    <row r="74" spans="1:44" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:44" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>112</v>
       </c>
@@ -12335,7 +12335,7 @@
       </c>
       <c r="AR74" s="165"/>
     </row>
-    <row r="75" spans="1:44" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:44" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="23"/>
       <c r="B75" s="213" t="s">
         <v>30</v>
@@ -12359,30 +12359,30 @@
       <c r="O75" s="213"/>
       <c r="P75" s="213"/>
       <c r="Q75" s="213"/>
-      <c r="R75" s="209" t="s">
+      <c r="R75" s="217" t="s">
         <v>33</v>
       </c>
-      <c r="S75" s="210"/>
-      <c r="T75" s="210"/>
-      <c r="U75" s="210"/>
-      <c r="V75" s="210"/>
-      <c r="W75" s="210"/>
-      <c r="X75" s="210"/>
-      <c r="Y75" s="210"/>
-      <c r="Z75" s="210"/>
-      <c r="AA75" s="210"/>
-      <c r="AB75" s="210"/>
-      <c r="AC75" s="210"/>
-      <c r="AD75" s="210"/>
-      <c r="AE75" s="210"/>
-      <c r="AF75" s="210"/>
-      <c r="AG75" s="210"/>
-      <c r="AH75" s="210"/>
-      <c r="AI75" s="210"/>
-      <c r="AJ75" s="210"/>
-      <c r="AK75" s="210"/>
-      <c r="AL75" s="210"/>
-      <c r="AM75" s="211"/>
+      <c r="S75" s="218"/>
+      <c r="T75" s="218"/>
+      <c r="U75" s="218"/>
+      <c r="V75" s="218"/>
+      <c r="W75" s="218"/>
+      <c r="X75" s="218"/>
+      <c r="Y75" s="218"/>
+      <c r="Z75" s="218"/>
+      <c r="AA75" s="218"/>
+      <c r="AB75" s="218"/>
+      <c r="AC75" s="218"/>
+      <c r="AD75" s="218"/>
+      <c r="AE75" s="218"/>
+      <c r="AF75" s="218"/>
+      <c r="AG75" s="218"/>
+      <c r="AH75" s="218"/>
+      <c r="AI75" s="218"/>
+      <c r="AJ75" s="218"/>
+      <c r="AK75" s="218"/>
+      <c r="AL75" s="218"/>
+      <c r="AM75" s="219"/>
       <c r="AN75" s="103"/>
       <c r="AO75" s="169" t="s">
         <v>231</v>
@@ -12395,7 +12395,7 @@
       </c>
       <c r="AR75" s="165"/>
     </row>
-    <row r="76" spans="1:44" s="100" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:44" s="100" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="1" t="s">
         <v>29</v>
@@ -12519,7 +12519,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="77" spans="1:44" s="100" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:44" s="100" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="1" t="s">
         <v>180</v>
@@ -12643,7 +12643,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:44" s="100" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:44" s="100" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
         <v>215</v>
       </c>
@@ -12764,7 +12764,7 @@
       <c r="AO78" s="132"/>
       <c r="AP78" s="133"/>
     </row>
-    <row r="79" spans="1:44" s="100" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:44" s="100" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="17" t="s">
         <v>216</v>
       </c>
@@ -12891,7 +12891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:44" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:44" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J80" s="135" t="s">
         <v>35</v>
       </c>
@@ -12911,7 +12911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>50</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="82" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>58</v>
       </c>
@@ -13169,7 +13169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>66</v>
       </c>
@@ -13298,7 +13298,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="84" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>73</v>
       </c>
@@ -13427,7 +13427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>81</v>
       </c>
@@ -13550,7 +13550,7 @@
       </c>
       <c r="AO85" s="101"/>
     </row>
-    <row r="86" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>89</v>
       </c>
@@ -13673,7 +13673,7 @@
       </c>
       <c r="AO86" s="101"/>
     </row>
-    <row r="87" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>97</v>
       </c>
@@ -13796,7 +13796,7 @@
       </c>
       <c r="AO87" s="101"/>
     </row>
-    <row r="88" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>105</v>
       </c>
@@ -13919,7 +13919,7 @@
       </c>
       <c r="AO88" s="101"/>
     </row>
-    <row r="89" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>51</v>
       </c>
@@ -14042,7 +14042,7 @@
       </c>
       <c r="AO89" s="101"/>
     </row>
-    <row r="90" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>59</v>
       </c>
@@ -14165,7 +14165,7 @@
       </c>
       <c r="AO90" s="101"/>
     </row>
-    <row r="91" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>67</v>
       </c>
@@ -14288,7 +14288,7 @@
       </c>
       <c r="AO91" s="101"/>
     </row>
-    <row r="92" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>74</v>
       </c>
@@ -14411,7 +14411,7 @@
       </c>
       <c r="AO92" s="101"/>
     </row>
-    <row r="93" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>82</v>
       </c>
@@ -14534,7 +14534,7 @@
       </c>
       <c r="AO93" s="101"/>
     </row>
-    <row r="94" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>90</v>
       </c>
@@ -14657,7 +14657,7 @@
       </c>
       <c r="AO94" s="101"/>
     </row>
-    <row r="95" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>98</v>
       </c>
@@ -14780,7 +14780,7 @@
       </c>
       <c r="AO95" s="101"/>
     </row>
-    <row r="96" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:44" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>106</v>
       </c>
@@ -14903,7 +14903,7 @@
       </c>
       <c r="AO96" s="101"/>
     </row>
-    <row r="97" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>52</v>
       </c>
@@ -15026,7 +15026,7 @@
       </c>
       <c r="AO97" s="101"/>
     </row>
-    <row r="98" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>60</v>
       </c>
@@ -15149,7 +15149,7 @@
       </c>
       <c r="AO98" s="101"/>
     </row>
-    <row r="99" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>29</v>
       </c>
@@ -15272,7 +15272,7 @@
       </c>
       <c r="AO99" s="101"/>
     </row>
-    <row r="100" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>75</v>
       </c>
@@ -15395,7 +15395,7 @@
       </c>
       <c r="AO100" s="101"/>
     </row>
-    <row r="101" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>83</v>
       </c>
@@ -15518,7 +15518,7 @@
       </c>
       <c r="AO101" s="101"/>
     </row>
-    <row r="102" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>91</v>
       </c>
@@ -15641,7 +15641,7 @@
       </c>
       <c r="AO102" s="101"/>
     </row>
-    <row r="103" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>99</v>
       </c>
@@ -15764,7 +15764,7 @@
       </c>
       <c r="AO103" s="101"/>
     </row>
-    <row r="104" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>107</v>
       </c>
@@ -15887,7 +15887,7 @@
       </c>
       <c r="AO104" s="101"/>
     </row>
-    <row r="105" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>53</v>
       </c>
@@ -16010,7 +16010,7 @@
       </c>
       <c r="AO105" s="101"/>
     </row>
-    <row r="106" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>61</v>
       </c>
@@ -16133,7 +16133,7 @@
       </c>
       <c r="AO106" s="101"/>
     </row>
-    <row r="107" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>68</v>
       </c>
@@ -16256,7 +16256,7 @@
       </c>
       <c r="AO107" s="101"/>
     </row>
-    <row r="108" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>76</v>
       </c>
@@ -16379,7 +16379,7 @@
       </c>
       <c r="AO108" s="101"/>
     </row>
-    <row r="109" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>84</v>
       </c>
@@ -16502,7 +16502,7 @@
       </c>
       <c r="AO109" s="101"/>
     </row>
-    <row r="110" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>92</v>
       </c>
@@ -16625,7 +16625,7 @@
       </c>
       <c r="AO110" s="101"/>
     </row>
-    <row r="111" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>100</v>
       </c>
@@ -16748,7 +16748,7 @@
       </c>
       <c r="AO111" s="101"/>
     </row>
-    <row r="112" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>108</v>
       </c>
@@ -16871,7 +16871,7 @@
       </c>
       <c r="AO112" s="101"/>
     </row>
-    <row r="113" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>54</v>
       </c>
@@ -16994,7 +16994,7 @@
       </c>
       <c r="AO113" s="101"/>
     </row>
-    <row r="114" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>62</v>
       </c>
@@ -17117,7 +17117,7 @@
       </c>
       <c r="AO114" s="101"/>
     </row>
-    <row r="115" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>69</v>
       </c>
@@ -17240,7 +17240,7 @@
       </c>
       <c r="AO115" s="101"/>
     </row>
-    <row r="116" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>77</v>
       </c>
@@ -17363,7 +17363,7 @@
       </c>
       <c r="AO116" s="101"/>
     </row>
-    <row r="117" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>85</v>
       </c>
@@ -17486,7 +17486,7 @@
       </c>
       <c r="AO117" s="101"/>
     </row>
-    <row r="118" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>93</v>
       </c>
@@ -17609,7 +17609,7 @@
       </c>
       <c r="AO118" s="101"/>
     </row>
-    <row r="119" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>101</v>
       </c>
@@ -17732,7 +17732,7 @@
       </c>
       <c r="AO119" s="101"/>
     </row>
-    <row r="120" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>109</v>
       </c>
@@ -17855,7 +17855,7 @@
       </c>
       <c r="AO120" s="101"/>
     </row>
-    <row r="121" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>55</v>
       </c>
@@ -17978,7 +17978,7 @@
       </c>
       <c r="AO121" s="101"/>
     </row>
-    <row r="122" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>63</v>
       </c>
@@ -18101,7 +18101,7 @@
       </c>
       <c r="AO122" s="101"/>
     </row>
-    <row r="123" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>70</v>
       </c>
@@ -18224,7 +18224,7 @@
       </c>
       <c r="AO123" s="101"/>
     </row>
-    <row r="124" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>78</v>
       </c>
@@ -18347,7 +18347,7 @@
       </c>
       <c r="AO124" s="101"/>
     </row>
-    <row r="125" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>86</v>
       </c>
@@ -18470,7 +18470,7 @@
       </c>
       <c r="AO125" s="101"/>
     </row>
-    <row r="126" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>94</v>
       </c>
@@ -18593,7 +18593,7 @@
       </c>
       <c r="AO126" s="101"/>
     </row>
-    <row r="127" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>102</v>
       </c>
@@ -18716,7 +18716,7 @@
       </c>
       <c r="AO127" s="101"/>
     </row>
-    <row r="128" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>110</v>
       </c>
@@ -18839,7 +18839,7 @@
       </c>
       <c r="AO128" s="101"/>
     </row>
-    <row r="129" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>56</v>
       </c>
@@ -18962,7 +18962,7 @@
       </c>
       <c r="AO129" s="101"/>
     </row>
-    <row r="130" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>64</v>
       </c>
@@ -19085,7 +19085,7 @@
       </c>
       <c r="AO130" s="101"/>
     </row>
-    <row r="131" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>71</v>
       </c>
@@ -19208,7 +19208,7 @@
       </c>
       <c r="AO131" s="101"/>
     </row>
-    <row r="132" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>79</v>
       </c>
@@ -19331,7 +19331,7 @@
       </c>
       <c r="AO132" s="101"/>
     </row>
-    <row r="133" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>87</v>
       </c>
@@ -19454,7 +19454,7 @@
       </c>
       <c r="AO133" s="101"/>
     </row>
-    <row r="134" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>95</v>
       </c>
@@ -19577,7 +19577,7 @@
       </c>
       <c r="AO134" s="101"/>
     </row>
-    <row r="135" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>103</v>
       </c>
@@ -19700,7 +19700,7 @@
       </c>
       <c r="AO135" s="101"/>
     </row>
-    <row r="136" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>111</v>
       </c>
@@ -19823,7 +19823,7 @@
       </c>
       <c r="AO136" s="101"/>
     </row>
-    <row r="137" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>57</v>
       </c>
@@ -19946,7 +19946,7 @@
       </c>
       <c r="AO137" s="101"/>
     </row>
-    <row r="138" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>65</v>
       </c>
@@ -20069,7 +20069,7 @@
       </c>
       <c r="AO138" s="101"/>
     </row>
-    <row r="139" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>72</v>
       </c>
@@ -20192,7 +20192,7 @@
       </c>
       <c r="AO139" s="101"/>
     </row>
-    <row r="140" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>80</v>
       </c>
@@ -20315,7 +20315,7 @@
       </c>
       <c r="AO140" s="101"/>
     </row>
-    <row r="141" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>88</v>
       </c>
@@ -20438,7 +20438,7 @@
       </c>
       <c r="AO141" s="101"/>
     </row>
-    <row r="142" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>96</v>
       </c>
@@ -20561,7 +20561,7 @@
       </c>
       <c r="AO142" s="101"/>
     </row>
-    <row r="143" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>104</v>
       </c>
@@ -20684,7 +20684,7 @@
       </c>
       <c r="AO143" s="101"/>
     </row>
-    <row r="144" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>112</v>
       </c>
@@ -20807,7 +20807,7 @@
       </c>
       <c r="AO144" s="101"/>
     </row>
-    <row r="145" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:41" s="106" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="139" t="s">
         <v>113</v>
       </c>
@@ -20928,19 +20928,12 @@
       <c r="AN145" s="1"/>
       <c r="AO145" s="101"/>
     </row>
-    <row r="146" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:41" x14ac:dyDescent="0.3">
       <c r="K146" s="62"/>
       <c r="AL146" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="G2:AO2"/>
-    <mergeCell ref="G3:AO3"/>
-    <mergeCell ref="G4:AO4"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="G5:AO5"/>
     <mergeCell ref="N75:Q75"/>
     <mergeCell ref="E75:M75"/>
@@ -20951,6 +20944,13 @@
     <mergeCell ref="A6:U6"/>
     <mergeCell ref="A7:U7"/>
     <mergeCell ref="R75:AM75"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="G2:AO2"/>
+    <mergeCell ref="G3:AO3"/>
+    <mergeCell ref="G4:AO4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20971,69 +20971,69 @@
       <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="67" customWidth="1"/>
-    <col min="2" max="24" width="5.6640625" style="67" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" style="74" customWidth="1"/>
-    <col min="26" max="29" width="5.6640625" style="70" customWidth="1"/>
-    <col min="30" max="30" width="5.6640625" style="28" customWidth="1"/>
-    <col min="31" max="35" width="5.6640625" style="70" customWidth="1"/>
-    <col min="36" max="36" width="5.6640625" style="140" customWidth="1"/>
-    <col min="37" max="37" width="9.1640625" style="67"/>
+    <col min="1" max="1" width="3.1796875" style="67" customWidth="1"/>
+    <col min="2" max="24" width="5.6328125" style="67" customWidth="1"/>
+    <col min="25" max="25" width="5.6328125" style="74" customWidth="1"/>
+    <col min="26" max="29" width="5.6328125" style="70" customWidth="1"/>
+    <col min="30" max="30" width="5.6328125" style="28" customWidth="1"/>
+    <col min="31" max="35" width="5.6328125" style="70" customWidth="1"/>
+    <col min="36" max="36" width="5.6328125" style="140" customWidth="1"/>
+    <col min="37" max="37" width="9.1796875" style="67"/>
     <col min="38" max="38" width="5" style="141" customWidth="1"/>
-    <col min="39" max="39" width="9.33203125" style="67" customWidth="1"/>
-    <col min="40" max="16384" width="9.1640625" style="67"/>
+    <col min="39" max="39" width="9.36328125" style="67" customWidth="1"/>
+    <col min="40" max="16384" width="9.1796875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="236" t="s">
+    <row r="1" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="228" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="236"/>
-      <c r="P1" s="236"/>
-      <c r="Q1" s="236"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="228"/>
+      <c r="N1" s="228"/>
+      <c r="O1" s="228"/>
+      <c r="P1" s="228"/>
+      <c r="Q1" s="228"/>
       <c r="R1" s="70"/>
       <c r="S1" s="70"/>
       <c r="T1" s="70"/>
       <c r="U1" s="70"/>
       <c r="V1" s="70"/>
     </row>
-    <row r="2" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="233" t="s">
+    <row r="2" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
-      <c r="F2" s="234"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="240" t="s">
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="235" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="241"/>
-      <c r="J2" s="241"/>
-      <c r="K2" s="241"/>
-      <c r="L2" s="241"/>
-      <c r="M2" s="241"/>
-      <c r="N2" s="241"/>
-      <c r="O2" s="241"/>
-      <c r="P2" s="241"/>
-      <c r="Q2" s="242"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="236"/>
+      <c r="L2" s="236"/>
+      <c r="M2" s="236"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="236"/>
+      <c r="P2" s="236"/>
+      <c r="Q2" s="237"/>
       <c r="R2" s="69"/>
       <c r="S2" s="69"/>
       <c r="T2" s="69"/>
@@ -21043,64 +21043,64 @@
       <c r="X2" s="69"/>
       <c r="Y2" s="69"/>
     </row>
-    <row r="3" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="233" t="s">
+    <row r="3" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="225" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="234"/>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="235"/>
-      <c r="H3" s="228">
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="220">
         <v>41057</v>
       </c>
-      <c r="I3" s="229"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="229"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="229"/>
-      <c r="O3" s="229"/>
-      <c r="P3" s="229"/>
-      <c r="Q3" s="229"/>
-      <c r="R3" s="229"/>
-      <c r="S3" s="229"/>
-      <c r="T3" s="229"/>
-      <c r="U3" s="229"/>
-      <c r="V3" s="229"/>
-      <c r="W3" s="229"/>
-      <c r="X3" s="229"/>
-      <c r="Y3" s="229"/>
-      <c r="Z3" s="229"/>
-      <c r="AA3" s="229"/>
-      <c r="AB3" s="229"/>
-      <c r="AC3" s="229"/>
-      <c r="AD3" s="229"/>
-      <c r="AE3" s="229"/>
-      <c r="AF3" s="229"/>
-      <c r="AG3" s="229"/>
-      <c r="AH3" s="229"/>
-      <c r="AI3" s="229"/>
-      <c r="AJ3" s="229"/>
-      <c r="AK3" s="229"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="221"/>
+      <c r="O3" s="221"/>
+      <c r="P3" s="221"/>
+      <c r="Q3" s="221"/>
+      <c r="R3" s="221"/>
+      <c r="S3" s="221"/>
+      <c r="T3" s="221"/>
+      <c r="U3" s="221"/>
+      <c r="V3" s="221"/>
+      <c r="W3" s="221"/>
+      <c r="X3" s="221"/>
+      <c r="Y3" s="221"/>
+      <c r="Z3" s="221"/>
+      <c r="AA3" s="221"/>
+      <c r="AB3" s="221"/>
+      <c r="AC3" s="221"/>
+      <c r="AD3" s="221"/>
+      <c r="AE3" s="221"/>
+      <c r="AF3" s="221"/>
+      <c r="AG3" s="221"/>
+      <c r="AH3" s="221"/>
+      <c r="AI3" s="221"/>
+      <c r="AJ3" s="221"/>
+      <c r="AK3" s="221"/>
     </row>
-    <row r="4" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="233" t="s">
+    <row r="4" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="225" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="234"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="235"/>
-      <c r="H4" s="225" t="s">
+      <c r="B4" s="226"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="226"/>
+      <c r="G4" s="227"/>
+      <c r="H4" s="232" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="226"/>
-      <c r="J4" s="227"/>
+      <c r="I4" s="233"/>
+      <c r="J4" s="234"/>
       <c r="K4" s="69"/>
       <c r="L4" s="69"/>
       <c r="M4" s="69"/>
@@ -21117,24 +21117,24 @@
       <c r="X4" s="69"/>
       <c r="Y4" s="69"/>
     </row>
-    <row r="5" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="233" t="s">
+    <row r="5" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="225" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="234"/>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234"/>
-      <c r="G5" s="235"/>
-      <c r="H5" s="225" t="s">
+      <c r="B5" s="226"/>
+      <c r="C5" s="226"/>
+      <c r="D5" s="226"/>
+      <c r="E5" s="226"/>
+      <c r="F5" s="226"/>
+      <c r="G5" s="227"/>
+      <c r="H5" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="226"/>
-      <c r="J5" s="226"/>
-      <c r="K5" s="226"/>
-      <c r="L5" s="226"/>
-      <c r="M5" s="227"/>
+      <c r="I5" s="233"/>
+      <c r="J5" s="233"/>
+      <c r="K5" s="233"/>
+      <c r="L5" s="233"/>
+      <c r="M5" s="234"/>
       <c r="N5" s="69"/>
       <c r="O5" s="69"/>
       <c r="P5" s="69"/>
@@ -21148,90 +21148,90 @@
       <c r="X5" s="69"/>
       <c r="Y5" s="69"/>
     </row>
-    <row r="6" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="224" t="s">
+    <row r="6" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="242" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="224"/>
-      <c r="C6" s="224"/>
-      <c r="D6" s="224"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
-      <c r="H6" s="224"/>
-      <c r="I6" s="224"/>
-      <c r="J6" s="224"/>
-      <c r="K6" s="224"/>
-      <c r="L6" s="224"/>
-      <c r="M6" s="224"/>
-      <c r="N6" s="224"/>
-      <c r="O6" s="224"/>
-      <c r="P6" s="224"/>
-      <c r="Q6" s="224"/>
-      <c r="R6" s="224"/>
+      <c r="B6" s="242"/>
+      <c r="C6" s="242"/>
+      <c r="D6" s="242"/>
+      <c r="E6" s="242"/>
+      <c r="F6" s="242"/>
+      <c r="G6" s="242"/>
+      <c r="H6" s="242"/>
+      <c r="I6" s="242"/>
+      <c r="J6" s="242"/>
+      <c r="K6" s="242"/>
+      <c r="L6" s="242"/>
+      <c r="M6" s="242"/>
+      <c r="N6" s="242"/>
+      <c r="O6" s="242"/>
+      <c r="P6" s="242"/>
+      <c r="Q6" s="242"/>
+      <c r="R6" s="242"/>
       <c r="S6" s="82"/>
       <c r="T6" s="71"/>
       <c r="U6" s="71"/>
       <c r="V6" s="71"/>
     </row>
-    <row r="7" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="230" t="s">
+    <row r="7" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="222" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="231"/>
-      <c r="C7" s="231"/>
-      <c r="D7" s="231"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="231"/>
-      <c r="G7" s="231"/>
-      <c r="H7" s="231"/>
-      <c r="I7" s="231"/>
-      <c r="J7" s="231"/>
-      <c r="K7" s="231"/>
-      <c r="L7" s="231"/>
-      <c r="M7" s="231"/>
-      <c r="N7" s="231"/>
-      <c r="O7" s="231"/>
-      <c r="P7" s="231"/>
-      <c r="Q7" s="231"/>
-      <c r="R7" s="231"/>
-      <c r="S7" s="231"/>
-      <c r="T7" s="231"/>
-      <c r="U7" s="231"/>
-      <c r="V7" s="231"/>
-      <c r="W7" s="231"/>
-      <c r="X7" s="231"/>
-      <c r="Y7" s="231"/>
-      <c r="Z7" s="232"/>
+      <c r="B7" s="223"/>
+      <c r="C7" s="223"/>
+      <c r="D7" s="223"/>
+      <c r="E7" s="223"/>
+      <c r="F7" s="223"/>
+      <c r="G7" s="223"/>
+      <c r="H7" s="223"/>
+      <c r="I7" s="223"/>
+      <c r="J7" s="223"/>
+      <c r="K7" s="223"/>
+      <c r="L7" s="223"/>
+      <c r="M7" s="223"/>
+      <c r="N7" s="223"/>
+      <c r="O7" s="223"/>
+      <c r="P7" s="223"/>
+      <c r="Q7" s="223"/>
+      <c r="R7" s="223"/>
+      <c r="S7" s="223"/>
+      <c r="T7" s="223"/>
+      <c r="U7" s="223"/>
+      <c r="V7" s="223"/>
+      <c r="W7" s="223"/>
+      <c r="X7" s="223"/>
+      <c r="Y7" s="223"/>
+      <c r="Z7" s="224"/>
       <c r="AA7" s="86"/>
     </row>
-    <row r="8" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="224" t="s">
+    <row r="8" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="242" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="224"/>
-      <c r="C8" s="224"/>
-      <c r="D8" s="224"/>
-      <c r="E8" s="224"/>
-      <c r="F8" s="224"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="224"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="224"/>
-      <c r="K8" s="224"/>
-      <c r="L8" s="224"/>
-      <c r="M8" s="224"/>
-      <c r="N8" s="224"/>
-      <c r="O8" s="224"/>
-      <c r="P8" s="224"/>
-      <c r="Q8" s="224"/>
-      <c r="R8" s="224"/>
+      <c r="B8" s="242"/>
+      <c r="C8" s="242"/>
+      <c r="D8" s="242"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="242"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="242"/>
+      <c r="I8" s="242"/>
+      <c r="J8" s="242"/>
+      <c r="K8" s="242"/>
+      <c r="L8" s="242"/>
+      <c r="M8" s="242"/>
+      <c r="N8" s="242"/>
+      <c r="O8" s="242"/>
+      <c r="P8" s="242"/>
+      <c r="Q8" s="242"/>
+      <c r="R8" s="242"/>
       <c r="S8" s="82"/>
       <c r="T8" s="71"/>
       <c r="U8" s="71"/>
       <c r="V8" s="71"/>
     </row>
-    <row r="9" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="64" t="s">
         <v>26</v>
       </c>
@@ -21257,7 +21257,7 @@
       <c r="U9" s="64"/>
       <c r="V9" s="64"/>
     </row>
-    <row r="10" spans="1:40" s="143" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" s="143" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>38</v>
       </c>
@@ -21376,7 +21376,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>50</v>
       </c>
@@ -21493,7 +21493,7 @@
       </c>
       <c r="AN11" s="141"/>
     </row>
-    <row r="12" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>58</v>
       </c>
@@ -21610,7 +21610,7 @@
       </c>
       <c r="AN12" s="141"/>
     </row>
-    <row r="13" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>66</v>
       </c>
@@ -21727,7 +21727,7 @@
       </c>
       <c r="AN13" s="141"/>
     </row>
-    <row r="14" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>73</v>
       </c>
@@ -21844,7 +21844,7 @@
       </c>
       <c r="AN14" s="141"/>
     </row>
-    <row r="15" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>81</v>
       </c>
@@ -21961,7 +21961,7 @@
       </c>
       <c r="AN15" s="141"/>
     </row>
-    <row r="16" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>89</v>
       </c>
@@ -22078,7 +22078,7 @@
       </c>
       <c r="AN16" s="141"/>
     </row>
-    <row r="17" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>97</v>
       </c>
@@ -22195,7 +22195,7 @@
       </c>
       <c r="AN17" s="141"/>
     </row>
-    <row r="18" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
         <v>105</v>
       </c>
@@ -22312,7 +22312,7 @@
       </c>
       <c r="AN18" s="141"/>
     </row>
-    <row r="19" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
         <v>51</v>
       </c>
@@ -22429,7 +22429,7 @@
       </c>
       <c r="AN19" s="141"/>
     </row>
-    <row r="20" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
         <v>59</v>
       </c>
@@ -22546,7 +22546,7 @@
       </c>
       <c r="AN20" s="141"/>
     </row>
-    <row r="21" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
         <v>67</v>
       </c>
@@ -22663,7 +22663,7 @@
       </c>
       <c r="AN21" s="141"/>
     </row>
-    <row r="22" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
         <v>74</v>
       </c>
@@ -22780,7 +22780,7 @@
       </c>
       <c r="AN22" s="141"/>
     </row>
-    <row r="23" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
         <v>82</v>
       </c>
@@ -22897,7 +22897,7 @@
       </c>
       <c r="AN23" s="141"/>
     </row>
-    <row r="24" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
         <v>90</v>
       </c>
@@ -23014,7 +23014,7 @@
       </c>
       <c r="AN24" s="141"/>
     </row>
-    <row r="25" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
         <v>98</v>
       </c>
@@ -23131,7 +23131,7 @@
       </c>
       <c r="AN25" s="141"/>
     </row>
-    <row r="26" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
         <v>106</v>
       </c>
@@ -23248,7 +23248,7 @@
       </c>
       <c r="AN26" s="141"/>
     </row>
-    <row r="27" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
         <v>52</v>
       </c>
@@ -23365,7 +23365,7 @@
       </c>
       <c r="AN27" s="141"/>
     </row>
-    <row r="28" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="41" t="s">
         <v>60</v>
       </c>
@@ -23482,7 +23482,7 @@
       </c>
       <c r="AN28" s="141"/>
     </row>
-    <row r="29" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="41" t="s">
         <v>29</v>
       </c>
@@ -23599,7 +23599,7 @@
       </c>
       <c r="AN29" s="141"/>
     </row>
-    <row r="30" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="41" t="s">
         <v>75</v>
       </c>
@@ -23716,7 +23716,7 @@
       </c>
       <c r="AN30" s="141"/>
     </row>
-    <row r="31" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>83</v>
       </c>
@@ -23833,7 +23833,7 @@
       </c>
       <c r="AN31" s="141"/>
     </row>
-    <row r="32" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
         <v>91</v>
       </c>
@@ -23950,7 +23950,7 @@
       </c>
       <c r="AN32" s="141"/>
     </row>
-    <row r="33" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="41" t="s">
         <v>99</v>
       </c>
@@ -24067,7 +24067,7 @@
       </c>
       <c r="AN33" s="141"/>
     </row>
-    <row r="34" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
         <v>107</v>
       </c>
@@ -24184,7 +24184,7 @@
       </c>
       <c r="AN34" s="141"/>
     </row>
-    <row r="35" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A35" s="41" t="s">
         <v>53</v>
       </c>
@@ -24301,7 +24301,7 @@
       </c>
       <c r="AN35" s="141"/>
     </row>
-    <row r="36" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
         <v>61</v>
       </c>
@@ -24418,7 +24418,7 @@
       </c>
       <c r="AN36" s="141"/>
     </row>
-    <row r="37" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
         <v>68</v>
       </c>
@@ -24535,7 +24535,7 @@
       </c>
       <c r="AN37" s="141"/>
     </row>
-    <row r="38" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A38" s="41" t="s">
         <v>76</v>
       </c>
@@ -24652,7 +24652,7 @@
       </c>
       <c r="AN38" s="141"/>
     </row>
-    <row r="39" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>84</v>
       </c>
@@ -24769,7 +24769,7 @@
       </c>
       <c r="AN39" s="141"/>
     </row>
-    <row r="40" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>92</v>
       </c>
@@ -24886,7 +24886,7 @@
       </c>
       <c r="AN40" s="141"/>
     </row>
-    <row r="41" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>100</v>
       </c>
@@ -25003,7 +25003,7 @@
       </c>
       <c r="AN41" s="141"/>
     </row>
-    <row r="42" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>108</v>
       </c>
@@ -25120,7 +25120,7 @@
       </c>
       <c r="AN42" s="141"/>
     </row>
-    <row r="43" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>54</v>
       </c>
@@ -25237,7 +25237,7 @@
       </c>
       <c r="AN43" s="141"/>
     </row>
-    <row r="44" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
         <v>62</v>
       </c>
@@ -25354,7 +25354,7 @@
       </c>
       <c r="AN44" s="141"/>
     </row>
-    <row r="45" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
         <v>69</v>
       </c>
@@ -25471,7 +25471,7 @@
       </c>
       <c r="AN45" s="141"/>
     </row>
-    <row r="46" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="s">
         <v>77</v>
       </c>
@@ -25588,7 +25588,7 @@
       </c>
       <c r="AN46" s="141"/>
     </row>
-    <row r="47" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
         <v>85</v>
       </c>
@@ -25705,7 +25705,7 @@
       </c>
       <c r="AN47" s="141"/>
     </row>
-    <row r="48" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
         <v>93</v>
       </c>
@@ -25822,7 +25822,7 @@
       </c>
       <c r="AN48" s="141"/>
     </row>
-    <row r="49" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
         <v>101</v>
       </c>
@@ -25939,7 +25939,7 @@
       </c>
       <c r="AN49" s="141"/>
     </row>
-    <row r="50" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
         <v>109</v>
       </c>
@@ -26056,7 +26056,7 @@
       </c>
       <c r="AN50" s="141"/>
     </row>
-    <row r="51" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
         <v>55</v>
       </c>
@@ -26173,7 +26173,7 @@
       </c>
       <c r="AN51" s="141"/>
     </row>
-    <row r="52" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
         <v>63</v>
       </c>
@@ -26290,7 +26290,7 @@
       </c>
       <c r="AN52" s="141"/>
     </row>
-    <row r="53" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
         <v>70</v>
       </c>
@@ -26407,7 +26407,7 @@
       </c>
       <c r="AN53" s="141"/>
     </row>
-    <row r="54" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
         <v>78</v>
       </c>
@@ -26524,7 +26524,7 @@
       </c>
       <c r="AN54" s="141"/>
     </row>
-    <row r="55" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
         <v>86</v>
       </c>
@@ -26641,7 +26641,7 @@
       </c>
       <c r="AN55" s="141"/>
     </row>
-    <row r="56" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
         <v>94</v>
       </c>
@@ -26758,7 +26758,7 @@
       </c>
       <c r="AN56" s="141"/>
     </row>
-    <row r="57" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
         <v>102</v>
       </c>
@@ -26875,7 +26875,7 @@
       </c>
       <c r="AN57" s="141"/>
     </row>
-    <row r="58" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
         <v>110</v>
       </c>
@@ -26992,7 +26992,7 @@
       </c>
       <c r="AN58" s="141"/>
     </row>
-    <row r="59" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A59" s="41" t="s">
         <v>56</v>
       </c>
@@ -27109,7 +27109,7 @@
       </c>
       <c r="AN59" s="141"/>
     </row>
-    <row r="60" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
         <v>64</v>
       </c>
@@ -27226,7 +27226,7 @@
       </c>
       <c r="AN60" s="141"/>
     </row>
-    <row r="61" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
         <v>71</v>
       </c>
@@ -27343,7 +27343,7 @@
       </c>
       <c r="AN61" s="141"/>
     </row>
-    <row r="62" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A62" s="41" t="s">
         <v>79</v>
       </c>
@@ -27460,7 +27460,7 @@
       </c>
       <c r="AN62" s="141"/>
     </row>
-    <row r="63" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A63" s="41" t="s">
         <v>87</v>
       </c>
@@ -27577,7 +27577,7 @@
       </c>
       <c r="AN63" s="141"/>
     </row>
-    <row r="64" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
         <v>95</v>
       </c>
@@ -27694,7 +27694,7 @@
       </c>
       <c r="AN64" s="141"/>
     </row>
-    <row r="65" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A65" s="41" t="s">
         <v>103</v>
       </c>
@@ -27811,7 +27811,7 @@
       </c>
       <c r="AN65" s="141"/>
     </row>
-    <row r="66" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
         <v>111</v>
       </c>
@@ -27928,7 +27928,7 @@
       </c>
       <c r="AN66" s="141"/>
     </row>
-    <row r="67" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A67" s="41" t="s">
         <v>57</v>
       </c>
@@ -28045,7 +28045,7 @@
       </c>
       <c r="AN67" s="141"/>
     </row>
-    <row r="68" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A68" s="41" t="s">
         <v>65</v>
       </c>
@@ -28162,7 +28162,7 @@
       </c>
       <c r="AN68" s="141"/>
     </row>
-    <row r="69" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A69" s="41" t="s">
         <v>72</v>
       </c>
@@ -28279,7 +28279,7 @@
       </c>
       <c r="AN69" s="141"/>
     </row>
-    <row r="70" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A70" s="41" t="s">
         <v>80</v>
       </c>
@@ -28396,7 +28396,7 @@
       </c>
       <c r="AN70" s="141"/>
     </row>
-    <row r="71" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A71" s="41" t="s">
         <v>88</v>
       </c>
@@ -28513,7 +28513,7 @@
       </c>
       <c r="AN71" s="141"/>
     </row>
-    <row r="72" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A72" s="41" t="s">
         <v>96</v>
       </c>
@@ -28630,7 +28630,7 @@
       </c>
       <c r="AN72" s="141"/>
     </row>
-    <row r="73" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:40" ht="13" x14ac:dyDescent="0.25">
       <c r="A73" s="41" t="s">
         <v>104</v>
       </c>
@@ -28747,7 +28747,7 @@
       </c>
       <c r="AN73" s="141"/>
     </row>
-    <row r="74" spans="1:40" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="42" t="s">
         <v>112</v>
       </c>
@@ -28864,49 +28864,49 @@
       </c>
       <c r="AN74" s="141"/>
     </row>
-    <row r="75" spans="1:40" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="237" t="s">
+    <row r="75" spans="1:40" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="229" t="s">
         <v>30</v>
       </c>
-      <c r="B75" s="238"/>
-      <c r="C75" s="239"/>
-      <c r="D75" s="237" t="s">
+      <c r="B75" s="230"/>
+      <c r="C75" s="231"/>
+      <c r="D75" s="229" t="s">
         <v>31</v>
       </c>
-      <c r="E75" s="238"/>
-      <c r="F75" s="238"/>
-      <c r="G75" s="238"/>
-      <c r="H75" s="239"/>
-      <c r="I75" s="237" t="s">
+      <c r="E75" s="230"/>
+      <c r="F75" s="230"/>
+      <c r="G75" s="230"/>
+      <c r="H75" s="231"/>
+      <c r="I75" s="229" t="s">
         <v>32</v>
       </c>
-      <c r="J75" s="238"/>
-      <c r="K75" s="238"/>
-      <c r="L75" s="238"/>
-      <c r="M75" s="238"/>
-      <c r="N75" s="239"/>
-      <c r="O75" s="237" t="s">
+      <c r="J75" s="230"/>
+      <c r="K75" s="230"/>
+      <c r="L75" s="230"/>
+      <c r="M75" s="230"/>
+      <c r="N75" s="231"/>
+      <c r="O75" s="229" t="s">
         <v>33</v>
       </c>
-      <c r="P75" s="238"/>
-      <c r="Q75" s="238"/>
-      <c r="R75" s="238"/>
-      <c r="S75" s="238"/>
-      <c r="T75" s="238"/>
-      <c r="U75" s="238"/>
-      <c r="V75" s="238"/>
-      <c r="W75" s="238"/>
-      <c r="X75" s="238"/>
-      <c r="Y75" s="238"/>
-      <c r="Z75" s="238"/>
-      <c r="AA75" s="238"/>
-      <c r="AB75" s="238"/>
-      <c r="AC75" s="238"/>
-      <c r="AD75" s="238"/>
-      <c r="AE75" s="238"/>
-      <c r="AF75" s="238"/>
-      <c r="AG75" s="238"/>
-      <c r="AH75" s="239"/>
+      <c r="P75" s="230"/>
+      <c r="Q75" s="230"/>
+      <c r="R75" s="230"/>
+      <c r="S75" s="230"/>
+      <c r="T75" s="230"/>
+      <c r="U75" s="230"/>
+      <c r="V75" s="230"/>
+      <c r="W75" s="230"/>
+      <c r="X75" s="230"/>
+      <c r="Y75" s="230"/>
+      <c r="Z75" s="230"/>
+      <c r="AA75" s="230"/>
+      <c r="AB75" s="230"/>
+      <c r="AC75" s="230"/>
+      <c r="AD75" s="230"/>
+      <c r="AE75" s="230"/>
+      <c r="AF75" s="230"/>
+      <c r="AG75" s="230"/>
+      <c r="AH75" s="231"/>
       <c r="AI75" s="81" t="s">
         <v>145</v>
       </c>
@@ -28922,7 +28922,7 @@
       </c>
       <c r="AN75" s="141"/>
     </row>
-    <row r="76" spans="1:40" s="146" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:40" s="146" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A76" s="43"/>
       <c r="B76" s="44" t="s">
         <v>29</v>
@@ -29031,12 +29031,12 @@
       <c r="AL76" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="AM76" s="220" t="s">
+      <c r="AM76" s="238" t="s">
         <v>181</v>
       </c>
-      <c r="AN76" s="221"/>
+      <c r="AN76" s="239"/>
     </row>
-    <row r="77" spans="1:40" s="146" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:40" s="146" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A77" s="43"/>
       <c r="B77" s="45" t="s">
         <v>180</v>
@@ -29144,12 +29144,12 @@
       <c r="AL77" s="146" t="s">
         <v>185</v>
       </c>
-      <c r="AM77" s="222" t="s">
+      <c r="AM77" s="240" t="s">
         <v>183</v>
       </c>
-      <c r="AN77" s="223"/>
+      <c r="AN77" s="241"/>
     </row>
-    <row r="78" spans="1:40" s="146" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:40" s="146" customFormat="1" ht="13" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
         <v>215</v>
       </c>
@@ -29258,7 +29258,7 @@
       <c r="AJ78" s="147"/>
       <c r="AL78" s="159"/>
     </row>
-    <row r="79" spans="1:40" s="146" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:40" s="146" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A79" s="17" t="s">
         <v>216</v>
       </c>
@@ -29373,7 +29373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:40" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B80" s="65"/>
       <c r="C80" s="65"/>
       <c r="D80" s="65"/>
@@ -29420,7 +29420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:40" s="150" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:40" s="150" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="46" t="s">
         <v>50</v>
       </c>
@@ -29537,7 +29537,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="82" spans="1:40" s="150" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:40" s="150" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="46" t="s">
         <v>58</v>
       </c>
@@ -29654,7 +29654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:40" s="150" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:40" s="150" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="46" t="s">
         <v>66</v>
       </c>
@@ -29771,7 +29771,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="84" spans="1:40" s="150" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:40" s="150" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="46" t="s">
         <v>73</v>
       </c>
@@ -29888,7 +29888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:40" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:40" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="46" t="s">
         <v>81</v>
       </c>
@@ -29999,7 +29999,7 @@
       </c>
       <c r="AL85" s="151"/>
     </row>
-    <row r="86" spans="1:40" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:40" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="46" t="s">
         <v>89</v>
       </c>
@@ -30110,7 +30110,7 @@
       </c>
       <c r="AL86" s="151"/>
     </row>
-    <row r="87" spans="1:40" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:40" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="46" t="s">
         <v>97</v>
       </c>
@@ -30221,7 +30221,7 @@
       </c>
       <c r="AL87" s="151"/>
     </row>
-    <row r="88" spans="1:40" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:40" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="46" t="s">
         <v>105</v>
       </c>
@@ -30332,7 +30332,7 @@
       </c>
       <c r="AL88" s="151"/>
     </row>
-    <row r="89" spans="1:40" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:40" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="46" t="s">
         <v>51</v>
       </c>
@@ -30443,7 +30443,7 @@
       </c>
       <c r="AL89" s="151"/>
     </row>
-    <row r="90" spans="1:40" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:40" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="46" t="s">
         <v>59</v>
       </c>
@@ -30554,7 +30554,7 @@
       </c>
       <c r="AL90" s="151"/>
     </row>
-    <row r="91" spans="1:40" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:40" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="46" t="s">
         <v>67</v>
       </c>
@@ -30665,7 +30665,7 @@
       </c>
       <c r="AL91" s="151"/>
     </row>
-    <row r="92" spans="1:40" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:40" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="46" t="s">
         <v>74</v>
       </c>
@@ -30776,7 +30776,7 @@
       </c>
       <c r="AL92" s="151"/>
     </row>
-    <row r="93" spans="1:40" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:40" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="46" t="s">
         <v>82</v>
       </c>
@@ -30887,7 +30887,7 @@
       </c>
       <c r="AL93" s="151"/>
     </row>
-    <row r="94" spans="1:40" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:40" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="46" t="s">
         <v>90</v>
       </c>
@@ -30998,7 +30998,7 @@
       </c>
       <c r="AL94" s="151"/>
     </row>
-    <row r="95" spans="1:40" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:40" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="46" t="s">
         <v>98</v>
       </c>
@@ -31109,7 +31109,7 @@
       </c>
       <c r="AL95" s="151"/>
     </row>
-    <row r="96" spans="1:40" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:40" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="46" t="s">
         <v>106</v>
       </c>
@@ -31220,7 +31220,7 @@
       </c>
       <c r="AL96" s="151"/>
     </row>
-    <row r="97" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="46" t="s">
         <v>52</v>
       </c>
@@ -31331,7 +31331,7 @@
       </c>
       <c r="AL97" s="151"/>
     </row>
-    <row r="98" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="46" t="s">
         <v>60</v>
       </c>
@@ -31442,7 +31442,7 @@
       </c>
       <c r="AL98" s="151"/>
     </row>
-    <row r="99" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="46" t="s">
         <v>29</v>
       </c>
@@ -31553,7 +31553,7 @@
       </c>
       <c r="AL99" s="151"/>
     </row>
-    <row r="100" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="46" t="s">
         <v>75</v>
       </c>
@@ -31664,7 +31664,7 @@
       </c>
       <c r="AL100" s="151"/>
     </row>
-    <row r="101" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="46" t="s">
         <v>83</v>
       </c>
@@ -31775,7 +31775,7 @@
       </c>
       <c r="AL101" s="151"/>
     </row>
-    <row r="102" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="46" t="s">
         <v>91</v>
       </c>
@@ -31886,7 +31886,7 @@
       </c>
       <c r="AL102" s="151"/>
     </row>
-    <row r="103" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="46" t="s">
         <v>99</v>
       </c>
@@ -31997,7 +31997,7 @@
       </c>
       <c r="AL103" s="151"/>
     </row>
-    <row r="104" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="46" t="s">
         <v>107</v>
       </c>
@@ -32108,7 +32108,7 @@
       </c>
       <c r="AL104" s="151"/>
     </row>
-    <row r="105" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="46" t="s">
         <v>53</v>
       </c>
@@ -32219,7 +32219,7 @@
       </c>
       <c r="AL105" s="151"/>
     </row>
-    <row r="106" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="46" t="s">
         <v>61</v>
       </c>
@@ -32330,7 +32330,7 @@
       </c>
       <c r="AL106" s="151"/>
     </row>
-    <row r="107" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="46" t="s">
         <v>68</v>
       </c>
@@ -32441,7 +32441,7 @@
       </c>
       <c r="AL107" s="151"/>
     </row>
-    <row r="108" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="46" t="s">
         <v>76</v>
       </c>
@@ -32552,7 +32552,7 @@
       </c>
       <c r="AL108" s="151"/>
     </row>
-    <row r="109" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="46" t="s">
         <v>84</v>
       </c>
@@ -32663,7 +32663,7 @@
       </c>
       <c r="AL109" s="151"/>
     </row>
-    <row r="110" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="46" t="s">
         <v>92</v>
       </c>
@@ -32774,7 +32774,7 @@
       </c>
       <c r="AL110" s="151"/>
     </row>
-    <row r="111" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="46" t="s">
         <v>100</v>
       </c>
@@ -32885,7 +32885,7 @@
       </c>
       <c r="AL111" s="151"/>
     </row>
-    <row r="112" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="46" t="s">
         <v>108</v>
       </c>
@@ -32996,7 +32996,7 @@
       </c>
       <c r="AL112" s="151"/>
     </row>
-    <row r="113" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="46" t="s">
         <v>54</v>
       </c>
@@ -33107,7 +33107,7 @@
       </c>
       <c r="AL113" s="151"/>
     </row>
-    <row r="114" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="46" t="s">
         <v>62</v>
       </c>
@@ -33218,7 +33218,7 @@
       </c>
       <c r="AL114" s="151"/>
     </row>
-    <row r="115" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="46" t="s">
         <v>69</v>
       </c>
@@ -33329,7 +33329,7 @@
       </c>
       <c r="AL115" s="151"/>
     </row>
-    <row r="116" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="46" t="s">
         <v>77</v>
       </c>
@@ -33440,7 +33440,7 @@
       </c>
       <c r="AL116" s="151"/>
     </row>
-    <row r="117" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="46" t="s">
         <v>85</v>
       </c>
@@ -33551,7 +33551,7 @@
       </c>
       <c r="AL117" s="151"/>
     </row>
-    <row r="118" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="46" t="s">
         <v>93</v>
       </c>
@@ -33662,7 +33662,7 @@
       </c>
       <c r="AL118" s="151"/>
     </row>
-    <row r="119" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="46" t="s">
         <v>101</v>
       </c>
@@ -33773,7 +33773,7 @@
       </c>
       <c r="AL119" s="151"/>
     </row>
-    <row r="120" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="46" t="s">
         <v>109</v>
       </c>
@@ -33884,7 +33884,7 @@
       </c>
       <c r="AL120" s="151"/>
     </row>
-    <row r="121" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="46" t="s">
         <v>55</v>
       </c>
@@ -33995,7 +33995,7 @@
       </c>
       <c r="AL121" s="151"/>
     </row>
-    <row r="122" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="46" t="s">
         <v>63</v>
       </c>
@@ -34106,7 +34106,7 @@
       </c>
       <c r="AL122" s="151"/>
     </row>
-    <row r="123" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="46" t="s">
         <v>70</v>
       </c>
@@ -34217,7 +34217,7 @@
       </c>
       <c r="AL123" s="151"/>
     </row>
-    <row r="124" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="46" t="s">
         <v>78</v>
       </c>
@@ -34328,7 +34328,7 @@
       </c>
       <c r="AL124" s="151"/>
     </row>
-    <row r="125" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="46" t="s">
         <v>86</v>
       </c>
@@ -34439,7 +34439,7 @@
       </c>
       <c r="AL125" s="151"/>
     </row>
-    <row r="126" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="46" t="s">
         <v>94</v>
       </c>
@@ -34550,7 +34550,7 @@
       </c>
       <c r="AL126" s="151"/>
     </row>
-    <row r="127" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="46" t="s">
         <v>102</v>
       </c>
@@ -34661,7 +34661,7 @@
       </c>
       <c r="AL127" s="151"/>
     </row>
-    <row r="128" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="46" t="s">
         <v>110</v>
       </c>
@@ -34772,7 +34772,7 @@
       </c>
       <c r="AL128" s="151"/>
     </row>
-    <row r="129" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="46" t="s">
         <v>56</v>
       </c>
@@ -34883,7 +34883,7 @@
       </c>
       <c r="AL129" s="151"/>
     </row>
-    <row r="130" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="46" t="s">
         <v>64</v>
       </c>
@@ -34994,7 +34994,7 @@
       </c>
       <c r="AL130" s="151"/>
     </row>
-    <row r="131" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="46" t="s">
         <v>71</v>
       </c>
@@ -35105,7 +35105,7 @@
       </c>
       <c r="AL131" s="151"/>
     </row>
-    <row r="132" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="46" t="s">
         <v>79</v>
       </c>
@@ -35216,7 +35216,7 @@
       </c>
       <c r="AL132" s="151"/>
     </row>
-    <row r="133" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="46" t="s">
         <v>87</v>
       </c>
@@ -35327,7 +35327,7 @@
       </c>
       <c r="AL133" s="151"/>
     </row>
-    <row r="134" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="46" t="s">
         <v>95</v>
       </c>
@@ -35438,7 +35438,7 @@
       </c>
       <c r="AL134" s="151"/>
     </row>
-    <row r="135" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="46" t="s">
         <v>103</v>
       </c>
@@ -35549,7 +35549,7 @@
       </c>
       <c r="AL135" s="151"/>
     </row>
-    <row r="136" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="46" t="s">
         <v>111</v>
       </c>
@@ -35660,7 +35660,7 @@
       </c>
       <c r="AL136" s="151"/>
     </row>
-    <row r="137" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="46" t="s">
         <v>57</v>
       </c>
@@ -35771,7 +35771,7 @@
       </c>
       <c r="AL137" s="151"/>
     </row>
-    <row r="138" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="46" t="s">
         <v>65</v>
       </c>
@@ -35882,7 +35882,7 @@
       </c>
       <c r="AL138" s="151"/>
     </row>
-    <row r="139" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="46" t="s">
         <v>72</v>
       </c>
@@ -35993,7 +35993,7 @@
       </c>
       <c r="AL139" s="151"/>
     </row>
-    <row r="140" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="46" t="s">
         <v>80</v>
       </c>
@@ -36104,7 +36104,7 @@
       </c>
       <c r="AL140" s="151"/>
     </row>
-    <row r="141" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="46" t="s">
         <v>88</v>
       </c>
@@ -36215,7 +36215,7 @@
       </c>
       <c r="AL141" s="151"/>
     </row>
-    <row r="142" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="46" t="s">
         <v>96</v>
       </c>
@@ -36326,7 +36326,7 @@
       </c>
       <c r="AL142" s="151"/>
     </row>
-    <row r="143" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="46" t="s">
         <v>104</v>
       </c>
@@ -36437,7 +36437,7 @@
       </c>
       <c r="AL143" s="151"/>
     </row>
-    <row r="144" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="46" t="s">
         <v>112</v>
       </c>
@@ -36548,7 +36548,7 @@
       </c>
       <c r="AL144" s="151"/>
     </row>
-    <row r="145" spans="1:38" s="150" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:38" s="150" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="153" t="s">
         <v>113</v>
       </c>
@@ -36657,7 +36657,7 @@
       <c r="AJ145" s="156"/>
       <c r="AL145" s="151"/>
     </row>
-    <row r="146" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B146" s="66"/>
       <c r="C146" s="66"/>
       <c r="D146" s="66"/>
@@ -36696,6 +36696,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AM76:AN76"/>
+    <mergeCell ref="AM77:AN77"/>
+    <mergeCell ref="A8:R8"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="H4:J4"/>
     <mergeCell ref="H3:AK3"/>
     <mergeCell ref="A7:Z7"/>
     <mergeCell ref="A3:G3"/>
@@ -36709,11 +36714,6 @@
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="H2:Q2"/>
-    <mergeCell ref="AM76:AN76"/>
-    <mergeCell ref="AM77:AN77"/>
-    <mergeCell ref="A8:R8"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -36732,86 +36732,86 @@
       <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="103" customWidth="1"/>
-    <col min="2" max="25" width="5.6640625" style="89" customWidth="1"/>
-    <col min="26" max="35" width="5.6640625" style="5" customWidth="1"/>
-    <col min="36" max="36" width="6.33203125" style="89" customWidth="1"/>
-    <col min="37" max="37" width="6.5" style="89" customWidth="1"/>
-    <col min="38" max="38" width="10.33203125" style="89" customWidth="1"/>
-    <col min="39" max="16384" width="9.1640625" style="89"/>
+    <col min="1" max="1" width="3.453125" style="103" customWidth="1"/>
+    <col min="2" max="25" width="5.6328125" style="89" customWidth="1"/>
+    <col min="26" max="35" width="5.6328125" style="5" customWidth="1"/>
+    <col min="36" max="36" width="6.36328125" style="89" customWidth="1"/>
+    <col min="37" max="37" width="6.453125" style="89" customWidth="1"/>
+    <col min="38" max="38" width="10.36328125" style="89" customWidth="1"/>
+    <col min="39" max="16384" width="9.1796875" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="217" t="s">
+    <row r="1" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="209" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="217"/>
-      <c r="O1" s="217"/>
-      <c r="P1" s="217"/>
-      <c r="Q1" s="217"/>
-      <c r="R1" s="217"/>
-      <c r="S1" s="217"/>
-      <c r="T1" s="217"/>
-      <c r="U1" s="217"/>
-      <c r="V1" s="217"/>
-      <c r="W1" s="217"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="209"/>
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
       <c r="X1" s="5"/>
     </row>
-    <row r="2" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="243" t="s">
+    <row r="2" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="249" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
+      <c r="B2" s="249"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
       <c r="F2" s="93"/>
-      <c r="G2" s="218" t="s">
+      <c r="G2" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
-      <c r="M2" s="218"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="218"/>
-      <c r="P2" s="218"/>
-      <c r="Q2" s="218"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="218"/>
-      <c r="T2" s="218"/>
-      <c r="U2" s="218"/>
-      <c r="V2" s="218"/>
-      <c r="W2" s="218"/>
-      <c r="X2" s="218"/>
-      <c r="Y2" s="218"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="210"/>
+      <c r="T2" s="210"/>
+      <c r="U2" s="210"/>
+      <c r="V2" s="210"/>
+      <c r="W2" s="210"/>
+      <c r="X2" s="210"/>
+      <c r="Y2" s="210"/>
     </row>
-    <row r="3" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="243" t="s">
+    <row r="3" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="249" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="243"/>
+      <c r="B3" s="249"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
       <c r="E3" s="92"/>
       <c r="F3" s="93"/>
-      <c r="G3" s="219">
+      <c r="G3" s="211">
         <v>41056</v>
       </c>
       <c r="H3" s="212"/>
@@ -36833,14 +36833,14 @@
       <c r="X3" s="212"/>
       <c r="Y3" s="212"/>
     </row>
-    <row r="4" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="243" t="s">
+    <row r="4" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="249" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="243"/>
-      <c r="C4" s="243"/>
-      <c r="D4" s="243"/>
-      <c r="E4" s="243"/>
+      <c r="B4" s="249"/>
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="249"/>
       <c r="F4" s="93"/>
       <c r="G4" s="212" t="s">
         <v>37</v>
@@ -36864,14 +36864,14 @@
       <c r="X4" s="212"/>
       <c r="Y4" s="212"/>
     </row>
-    <row r="5" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="243" t="s">
+    <row r="5" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="249" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
+      <c r="B5" s="249"/>
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="249"/>
       <c r="F5" s="93"/>
       <c r="G5" s="212" t="s">
         <v>11</v>
@@ -36895,119 +36895,119 @@
       <c r="X5" s="212"/>
       <c r="Y5" s="212"/>
     </row>
-    <row r="6" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="206" t="s">
+    <row r="6" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="206"/>
-      <c r="C6" s="206"/>
-      <c r="D6" s="206"/>
-      <c r="E6" s="206"/>
-      <c r="F6" s="206"/>
-      <c r="G6" s="206"/>
-      <c r="H6" s="206"/>
-      <c r="I6" s="206"/>
-      <c r="J6" s="206"/>
-      <c r="K6" s="206"/>
-      <c r="L6" s="206"/>
-      <c r="M6" s="206"/>
-      <c r="N6" s="206"/>
-      <c r="O6" s="206"/>
-      <c r="P6" s="206"/>
-      <c r="Q6" s="206"/>
-      <c r="R6" s="206"/>
-      <c r="S6" s="206"/>
-      <c r="T6" s="206"/>
-      <c r="U6" s="206"/>
-      <c r="V6" s="206"/>
-      <c r="W6" s="206"/>
+      <c r="B6" s="214"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="214"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="214"/>
+      <c r="I6" s="214"/>
+      <c r="J6" s="214"/>
+      <c r="K6" s="214"/>
+      <c r="L6" s="214"/>
+      <c r="M6" s="214"/>
+      <c r="N6" s="214"/>
+      <c r="O6" s="214"/>
+      <c r="P6" s="214"/>
+      <c r="Q6" s="214"/>
+      <c r="R6" s="214"/>
+      <c r="S6" s="214"/>
+      <c r="T6" s="214"/>
+      <c r="U6" s="214"/>
+      <c r="V6" s="214"/>
+      <c r="W6" s="214"/>
       <c r="X6" s="94"/>
     </row>
-    <row r="7" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="206" t="s">
+    <row r="7" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="214" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="208"/>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
-      <c r="H7" s="208"/>
-      <c r="I7" s="208"/>
-      <c r="J7" s="208"/>
-      <c r="K7" s="208"/>
-      <c r="L7" s="208"/>
-      <c r="M7" s="208"/>
-      <c r="N7" s="208"/>
-      <c r="O7" s="208"/>
-      <c r="P7" s="208"/>
-      <c r="Q7" s="208"/>
-      <c r="R7" s="208"/>
-      <c r="S7" s="208"/>
-      <c r="T7" s="208"/>
-      <c r="U7" s="208"/>
-      <c r="V7" s="208"/>
-      <c r="W7" s="208"/>
+      <c r="B7" s="216"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
+      <c r="H7" s="216"/>
+      <c r="I7" s="216"/>
+      <c r="J7" s="216"/>
+      <c r="K7" s="216"/>
+      <c r="L7" s="216"/>
+      <c r="M7" s="216"/>
+      <c r="N7" s="216"/>
+      <c r="O7" s="216"/>
+      <c r="P7" s="216"/>
+      <c r="Q7" s="216"/>
+      <c r="R7" s="216"/>
+      <c r="S7" s="216"/>
+      <c r="T7" s="216"/>
+      <c r="U7" s="216"/>
+      <c r="V7" s="216"/>
+      <c r="W7" s="216"/>
       <c r="X7" s="95"/>
     </row>
-    <row r="8" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="206" t="s">
+    <row r="8" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="214" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
-      <c r="F8" s="206"/>
-      <c r="G8" s="206"/>
-      <c r="H8" s="206"/>
-      <c r="I8" s="206"/>
-      <c r="J8" s="206"/>
-      <c r="K8" s="206"/>
-      <c r="L8" s="206"/>
-      <c r="M8" s="206"/>
-      <c r="N8" s="206"/>
-      <c r="O8" s="206"/>
-      <c r="P8" s="206"/>
-      <c r="Q8" s="206"/>
-      <c r="R8" s="206"/>
-      <c r="S8" s="206"/>
-      <c r="T8" s="206"/>
-      <c r="U8" s="206"/>
-      <c r="V8" s="206"/>
-      <c r="W8" s="206"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
+      <c r="G8" s="214"/>
+      <c r="H8" s="214"/>
+      <c r="I8" s="214"/>
+      <c r="J8" s="214"/>
+      <c r="K8" s="214"/>
+      <c r="L8" s="214"/>
+      <c r="M8" s="214"/>
+      <c r="N8" s="214"/>
+      <c r="O8" s="214"/>
+      <c r="P8" s="214"/>
+      <c r="Q8" s="214"/>
+      <c r="R8" s="214"/>
+      <c r="S8" s="214"/>
+      <c r="T8" s="214"/>
+      <c r="U8" s="214"/>
+      <c r="V8" s="214"/>
+      <c r="W8" s="214"/>
       <c r="X8" s="94"/>
     </row>
-    <row r="9" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="207" t="s">
+    <row r="9" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="215" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="207"/>
-      <c r="C9" s="207"/>
-      <c r="D9" s="207"/>
-      <c r="E9" s="207"/>
-      <c r="F9" s="207"/>
-      <c r="G9" s="207"/>
-      <c r="H9" s="207"/>
-      <c r="I9" s="207"/>
-      <c r="J9" s="207"/>
-      <c r="K9" s="207"/>
-      <c r="L9" s="207"/>
-      <c r="M9" s="207"/>
-      <c r="N9" s="207"/>
-      <c r="O9" s="207"/>
-      <c r="P9" s="207"/>
-      <c r="Q9" s="207"/>
-      <c r="R9" s="207"/>
-      <c r="S9" s="207"/>
-      <c r="T9" s="207"/>
-      <c r="U9" s="207"/>
-      <c r="V9" s="207"/>
-      <c r="W9" s="207"/>
+      <c r="B9" s="215"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="215"/>
+      <c r="E9" s="215"/>
+      <c r="F9" s="215"/>
+      <c r="G9" s="215"/>
+      <c r="H9" s="215"/>
+      <c r="I9" s="215"/>
+      <c r="J9" s="215"/>
+      <c r="K9" s="215"/>
+      <c r="L9" s="215"/>
+      <c r="M9" s="215"/>
+      <c r="N9" s="215"/>
+      <c r="O9" s="215"/>
+      <c r="P9" s="215"/>
+      <c r="Q9" s="215"/>
+      <c r="R9" s="215"/>
+      <c r="S9" s="215"/>
+      <c r="T9" s="215"/>
+      <c r="U9" s="215"/>
+      <c r="V9" s="215"/>
+      <c r="W9" s="215"/>
       <c r="X9" s="8"/>
     </row>
-    <row r="10" spans="1:39" s="98" customFormat="1" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" s="98" customFormat="1" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>38</v>
       </c>
@@ -37123,7 +37123,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>50</v>
       </c>
@@ -37238,7 +37238,7 @@
       </c>
       <c r="AM11" s="165"/>
     </row>
-    <row r="12" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>58</v>
       </c>
@@ -37353,7 +37353,7 @@
       </c>
       <c r="AM12" s="165"/>
     </row>
-    <row r="13" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>66</v>
       </c>
@@ -37468,7 +37468,7 @@
       </c>
       <c r="AM13" s="165"/>
     </row>
-    <row r="14" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>73</v>
       </c>
@@ -37583,7 +37583,7 @@
       </c>
       <c r="AM14" s="165"/>
     </row>
-    <row r="15" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>81</v>
       </c>
@@ -37698,7 +37698,7 @@
       </c>
       <c r="AM15" s="165"/>
     </row>
-    <row r="16" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>89</v>
       </c>
@@ -37813,7 +37813,7 @@
       </c>
       <c r="AM16" s="165"/>
     </row>
-    <row r="17" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>97</v>
       </c>
@@ -37928,7 +37928,7 @@
       </c>
       <c r="AM17" s="165"/>
     </row>
-    <row r="18" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>105</v>
       </c>
@@ -38043,7 +38043,7 @@
       </c>
       <c r="AM18" s="165"/>
     </row>
-    <row r="19" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>51</v>
       </c>
@@ -38158,7 +38158,7 @@
       </c>
       <c r="AM19" s="165"/>
     </row>
-    <row r="20" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>59</v>
       </c>
@@ -38273,7 +38273,7 @@
       </c>
       <c r="AM20" s="165"/>
     </row>
-    <row r="21" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>67</v>
       </c>
@@ -38388,7 +38388,7 @@
       </c>
       <c r="AM21" s="165"/>
     </row>
-    <row r="22" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>74</v>
       </c>
@@ -38503,7 +38503,7 @@
       </c>
       <c r="AM22" s="165"/>
     </row>
-    <row r="23" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>82</v>
       </c>
@@ -38618,7 +38618,7 @@
       </c>
       <c r="AM23" s="165"/>
     </row>
-    <row r="24" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>90</v>
       </c>
@@ -38733,7 +38733,7 @@
       </c>
       <c r="AM24" s="165"/>
     </row>
-    <row r="25" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>98</v>
       </c>
@@ -38848,7 +38848,7 @@
       </c>
       <c r="AM25" s="165"/>
     </row>
-    <row r="26" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>106</v>
       </c>
@@ -38963,7 +38963,7 @@
       </c>
       <c r="AM26" s="165"/>
     </row>
-    <row r="27" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
@@ -39078,7 +39078,7 @@
       </c>
       <c r="AM27" s="165"/>
     </row>
-    <row r="28" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>60</v>
       </c>
@@ -39193,7 +39193,7 @@
       </c>
       <c r="AM28" s="165"/>
     </row>
-    <row r="29" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
@@ -39308,7 +39308,7 @@
       </c>
       <c r="AM29" s="165"/>
     </row>
-    <row r="30" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>75</v>
       </c>
@@ -39423,7 +39423,7 @@
       </c>
       <c r="AM30" s="165"/>
     </row>
-    <row r="31" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>83</v>
       </c>
@@ -39538,7 +39538,7 @@
       </c>
       <c r="AM31" s="165"/>
     </row>
-    <row r="32" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>91</v>
       </c>
@@ -39653,7 +39653,7 @@
       </c>
       <c r="AM32" s="165"/>
     </row>
-    <row r="33" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>99</v>
       </c>
@@ -39768,7 +39768,7 @@
       </c>
       <c r="AM33" s="165"/>
     </row>
-    <row r="34" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>107</v>
       </c>
@@ -39883,7 +39883,7 @@
       </c>
       <c r="AM34" s="165"/>
     </row>
-    <row r="35" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>53</v>
       </c>
@@ -39998,7 +39998,7 @@
       </c>
       <c r="AM35" s="165"/>
     </row>
-    <row r="36" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>61</v>
       </c>
@@ -40113,7 +40113,7 @@
       </c>
       <c r="AM36" s="165"/>
     </row>
-    <row r="37" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>68</v>
       </c>
@@ -40228,7 +40228,7 @@
       </c>
       <c r="AM37" s="165"/>
     </row>
-    <row r="38" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>76</v>
       </c>
@@ -40343,7 +40343,7 @@
       </c>
       <c r="AM38" s="165"/>
     </row>
-    <row r="39" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>84</v>
       </c>
@@ -40458,7 +40458,7 @@
       </c>
       <c r="AM39" s="165"/>
     </row>
-    <row r="40" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>92</v>
       </c>
@@ -40573,7 +40573,7 @@
       </c>
       <c r="AM40" s="165"/>
     </row>
-    <row r="41" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>100</v>
       </c>
@@ -40688,7 +40688,7 @@
       </c>
       <c r="AM41" s="165"/>
     </row>
-    <row r="42" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>108</v>
       </c>
@@ -40803,7 +40803,7 @@
       </c>
       <c r="AM42" s="165"/>
     </row>
-    <row r="43" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>54</v>
       </c>
@@ -40918,7 +40918,7 @@
       </c>
       <c r="AM43" s="165"/>
     </row>
-    <row r="44" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>62</v>
       </c>
@@ -41033,7 +41033,7 @@
       </c>
       <c r="AM44" s="165"/>
     </row>
-    <row r="45" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>69</v>
       </c>
@@ -41148,7 +41148,7 @@
       </c>
       <c r="AM45" s="165"/>
     </row>
-    <row r="46" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>77</v>
       </c>
@@ -41263,7 +41263,7 @@
       </c>
       <c r="AM46" s="165"/>
     </row>
-    <row r="47" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>85</v>
       </c>
@@ -41378,7 +41378,7 @@
       </c>
       <c r="AM47" s="165"/>
     </row>
-    <row r="48" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>93</v>
       </c>
@@ -41493,7 +41493,7 @@
       </c>
       <c r="AM48" s="165"/>
     </row>
-    <row r="49" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>101</v>
       </c>
@@ -41608,7 +41608,7 @@
       </c>
       <c r="AM49" s="165"/>
     </row>
-    <row r="50" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>109</v>
       </c>
@@ -41723,7 +41723,7 @@
       </c>
       <c r="AM50" s="165"/>
     </row>
-    <row r="51" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>55</v>
       </c>
@@ -41838,7 +41838,7 @@
       </c>
       <c r="AM51" s="165"/>
     </row>
-    <row r="52" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>63</v>
       </c>
@@ -41953,7 +41953,7 @@
       </c>
       <c r="AM52" s="165"/>
     </row>
-    <row r="53" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>70</v>
       </c>
@@ -42068,7 +42068,7 @@
       </c>
       <c r="AM53" s="165"/>
     </row>
-    <row r="54" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>78</v>
       </c>
@@ -42183,7 +42183,7 @@
       </c>
       <c r="AM54" s="165"/>
     </row>
-    <row r="55" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>86</v>
       </c>
@@ -42298,7 +42298,7 @@
       </c>
       <c r="AM55" s="165"/>
     </row>
-    <row r="56" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>94</v>
       </c>
@@ -42413,7 +42413,7 @@
       </c>
       <c r="AM56" s="165"/>
     </row>
-    <row r="57" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>102</v>
       </c>
@@ -42528,7 +42528,7 @@
       </c>
       <c r="AM57" s="165"/>
     </row>
-    <row r="58" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>110</v>
       </c>
@@ -42643,7 +42643,7 @@
       </c>
       <c r="AM58" s="165"/>
     </row>
-    <row r="59" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>56</v>
       </c>
@@ -42758,7 +42758,7 @@
       </c>
       <c r="AM59" s="165"/>
     </row>
-    <row r="60" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>64</v>
       </c>
@@ -42873,7 +42873,7 @@
       </c>
       <c r="AM60" s="165"/>
     </row>
-    <row r="61" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>71</v>
       </c>
@@ -42988,7 +42988,7 @@
       </c>
       <c r="AM61" s="165"/>
     </row>
-    <row r="62" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>79</v>
       </c>
@@ -43103,7 +43103,7 @@
       </c>
       <c r="AM62" s="165"/>
     </row>
-    <row r="63" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>87</v>
       </c>
@@ -43218,7 +43218,7 @@
       </c>
       <c r="AM63" s="165"/>
     </row>
-    <row r="64" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>95</v>
       </c>
@@ -43333,7 +43333,7 @@
       </c>
       <c r="AM64" s="165"/>
     </row>
-    <row r="65" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>103</v>
       </c>
@@ -43448,7 +43448,7 @@
       </c>
       <c r="AM65" s="165"/>
     </row>
-    <row r="66" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>111</v>
       </c>
@@ -43563,7 +43563,7 @@
       </c>
       <c r="AM66" s="165"/>
     </row>
-    <row r="67" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>57</v>
       </c>
@@ -43678,7 +43678,7 @@
       </c>
       <c r="AM67" s="165"/>
     </row>
-    <row r="68" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>65</v>
       </c>
@@ -43793,7 +43793,7 @@
       </c>
       <c r="AM68" s="165"/>
     </row>
-    <row r="69" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>72</v>
       </c>
@@ -43908,7 +43908,7 @@
       </c>
       <c r="AM69" s="165"/>
     </row>
-    <row r="70" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>80</v>
       </c>
@@ -44023,7 +44023,7 @@
       </c>
       <c r="AM70" s="165"/>
     </row>
-    <row r="71" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>88</v>
       </c>
@@ -44138,7 +44138,7 @@
       </c>
       <c r="AM71" s="165"/>
     </row>
-    <row r="72" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>96</v>
       </c>
@@ -44253,7 +44253,7 @@
       </c>
       <c r="AM72" s="165"/>
     </row>
-    <row r="73" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>104</v>
       </c>
@@ -44368,7 +44368,7 @@
       </c>
       <c r="AM73" s="165"/>
     </row>
-    <row r="74" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>112</v>
       </c>
@@ -44483,49 +44483,49 @@
       </c>
       <c r="AM74" s="165"/>
     </row>
-    <row r="75" spans="1:39" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="11"/>
-      <c r="B75" s="247" t="s">
+      <c r="B75" s="246" t="s">
         <v>30</v>
       </c>
-      <c r="C75" s="248"/>
-      <c r="D75" s="249"/>
-      <c r="E75" s="244" t="s">
+      <c r="C75" s="247"/>
+      <c r="D75" s="248"/>
+      <c r="E75" s="243" t="s">
         <v>31</v>
       </c>
-      <c r="F75" s="245"/>
-      <c r="G75" s="245"/>
-      <c r="H75" s="245"/>
-      <c r="I75" s="245"/>
-      <c r="J75" s="245"/>
-      <c r="K75" s="245"/>
-      <c r="L75" s="246"/>
-      <c r="M75" s="244" t="s">
+      <c r="F75" s="244"/>
+      <c r="G75" s="244"/>
+      <c r="H75" s="244"/>
+      <c r="I75" s="244"/>
+      <c r="J75" s="244"/>
+      <c r="K75" s="244"/>
+      <c r="L75" s="245"/>
+      <c r="M75" s="243" t="s">
         <v>32</v>
       </c>
-      <c r="N75" s="245"/>
-      <c r="O75" s="245"/>
-      <c r="P75" s="245"/>
-      <c r="Q75" s="246"/>
-      <c r="R75" s="244" t="s">
+      <c r="N75" s="244"/>
+      <c r="O75" s="244"/>
+      <c r="P75" s="244"/>
+      <c r="Q75" s="245"/>
+      <c r="R75" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="S75" s="245"/>
-      <c r="T75" s="245"/>
-      <c r="U75" s="245"/>
-      <c r="V75" s="245"/>
-      <c r="W75" s="245"/>
-      <c r="X75" s="245"/>
-      <c r="Y75" s="245"/>
-      <c r="Z75" s="245"/>
-      <c r="AA75" s="245"/>
-      <c r="AB75" s="245"/>
-      <c r="AC75" s="245"/>
-      <c r="AD75" s="245"/>
-      <c r="AE75" s="245"/>
-      <c r="AF75" s="245"/>
-      <c r="AG75" s="245"/>
-      <c r="AH75" s="246"/>
+      <c r="S75" s="244"/>
+      <c r="T75" s="244"/>
+      <c r="U75" s="244"/>
+      <c r="V75" s="244"/>
+      <c r="W75" s="244"/>
+      <c r="X75" s="244"/>
+      <c r="Y75" s="244"/>
+      <c r="Z75" s="244"/>
+      <c r="AA75" s="244"/>
+      <c r="AB75" s="244"/>
+      <c r="AC75" s="244"/>
+      <c r="AD75" s="244"/>
+      <c r="AE75" s="244"/>
+      <c r="AF75" s="244"/>
+      <c r="AG75" s="244"/>
+      <c r="AH75" s="245"/>
       <c r="AI75" s="29"/>
       <c r="AJ75" s="175" t="s">
         <v>231</v>
@@ -44538,7 +44538,7 @@
       </c>
       <c r="AM75" s="165"/>
     </row>
-    <row r="76" spans="1:39" s="100" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:39" s="100" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A76" s="87"/>
       <c r="B76" s="1" t="s">
         <v>29</v>
@@ -44648,7 +44648,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="77" spans="1:39" s="100" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:39" s="100" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A77" s="87"/>
       <c r="B77" s="158" t="s">
         <v>182</v>
@@ -44757,7 +44757,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:39" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:39" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
         <v>215</v>
       </c>
@@ -44864,7 +44864,7 @@
       <c r="AK78" s="101"/>
       <c r="AL78" s="102"/>
     </row>
-    <row r="79" spans="1:39" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:39" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A79" s="17" t="s">
         <v>216</v>
       </c>
@@ -44976,7 +44976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:39" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C80" s="90"/>
       <c r="D80" s="90"/>
       <c r="E80" s="90"/>
@@ -45019,7 +45019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:39" s="106" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:39" s="106" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>50</v>
       </c>
@@ -45132,7 +45132,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="82" spans="1:39" s="106" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:39" s="106" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>58</v>
       </c>
@@ -45245,7 +45245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:39" s="106" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:39" s="106" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>66</v>
       </c>
@@ -45358,7 +45358,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="84" spans="1:39" s="106" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:39" s="106" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>73</v>
       </c>
@@ -45471,7 +45471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:39" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:39" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>81</v>
       </c>
@@ -45578,7 +45578,7 @@
         <v>3.7770000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:39" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:39" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>89</v>
       </c>
@@ -45685,7 +45685,7 @@
         <v>7.2930000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:39" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:39" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>97</v>
       </c>
@@ -45792,7 +45792,7 @@
         <v>7.16</v>
       </c>
     </row>
-    <row r="88" spans="1:39" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:39" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>105</v>
       </c>
@@ -45899,7 +45899,7 @@
         <v>9.3390000000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:39" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:39" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>51</v>
       </c>
@@ -46006,7 +46006,7 @@
         <v>4.3559999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:39" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:39" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>59</v>
       </c>
@@ -46113,7 +46113,7 @@
         <v>5.907</v>
       </c>
     </row>
-    <row r="91" spans="1:39" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:39" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>67</v>
       </c>
@@ -46220,7 +46220,7 @@
         <v>9.4139999999999997</v>
       </c>
     </row>
-    <row r="92" spans="1:39" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:39" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>74</v>
       </c>
@@ -46327,7 +46327,7 @@
         <v>2.331</v>
       </c>
     </row>
-    <row r="93" spans="1:39" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:39" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>82</v>
       </c>
@@ -46434,7 +46434,7 @@
         <v>6.048</v>
       </c>
     </row>
-    <row r="94" spans="1:39" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:39" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>90</v>
       </c>
@@ -46541,7 +46541,7 @@
         <v>9.3970000000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:39" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:39" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>98</v>
       </c>
@@ -46648,7 +46648,7 @@
         <v>7.7350000000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:39" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:39" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>106</v>
       </c>
@@ -46755,7 +46755,7 @@
         <v>10.81</v>
       </c>
     </row>
-    <row r="97" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>52</v>
       </c>
@@ -46862,7 +46862,7 @@
         <v>3.5640000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>60</v>
       </c>
@@ -46969,7 +46969,7 @@
         <v>6.0880000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>29</v>
       </c>
@@ -47076,7 +47076,7 @@
         <v>8.6769999999999996</v>
       </c>
     </row>
-    <row r="100" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>75</v>
       </c>
@@ -47183,7 +47183,7 @@
         <v>3.395</v>
       </c>
     </row>
-    <row r="101" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>83</v>
       </c>
@@ -47290,7 +47290,7 @@
         <v>3.246</v>
       </c>
     </row>
-    <row r="102" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>91</v>
       </c>
@@ -47397,7 +47397,7 @@
         <v>8.7059999999999995</v>
       </c>
     </row>
-    <row r="103" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>99</v>
       </c>
@@ -47504,7 +47504,7 @@
         <v>5.8789999999999996</v>
       </c>
     </row>
-    <row r="104" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>107</v>
       </c>
@@ -47611,7 +47611,7 @@
         <v>5.4089999999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>53</v>
       </c>
@@ -47718,7 +47718,7 @@
         <v>11.84</v>
       </c>
     </row>
-    <row r="106" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>61</v>
       </c>
@@ -47825,7 +47825,7 @@
         <v>6.9379999999999997</v>
       </c>
     </row>
-    <row r="107" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>68</v>
       </c>
@@ -47932,7 +47932,7 @@
         <v>9.532</v>
       </c>
     </row>
-    <row r="108" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>76</v>
       </c>
@@ -48039,7 +48039,7 @@
         <v>6.915</v>
       </c>
     </row>
-    <row r="109" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>84</v>
       </c>
@@ -48146,7 +48146,7 @@
         <v>4.6459999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>92</v>
       </c>
@@ -48253,7 +48253,7 @@
         <v>4.3449999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>100</v>
       </c>
@@ -48360,7 +48360,7 @@
         <v>9.3689999999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>108</v>
       </c>
@@ -48467,7 +48467,7 @@
         <v>10.24</v>
       </c>
     </row>
-    <row r="113" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>54</v>
       </c>
@@ -48574,7 +48574,7 @@
         <v>7.5460000000000003</v>
       </c>
     </row>
-    <row r="114" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>62</v>
       </c>
@@ -48681,7 +48681,7 @@
         <v>9.0909999999999993</v>
       </c>
     </row>
-    <row r="115" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>69</v>
       </c>
@@ -48788,7 +48788,7 @@
         <v>5.57</v>
       </c>
     </row>
-    <row r="116" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>77</v>
       </c>
@@ -48895,7 +48895,7 @@
         <v>6.38</v>
       </c>
     </row>
-    <row r="117" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>85</v>
       </c>
@@ -49002,7 +49002,7 @@
         <v>4.5810000000000004</v>
       </c>
     </row>
-    <row r="118" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>93</v>
       </c>
@@ -49109,7 +49109,7 @@
         <v>7.7149999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>101</v>
       </c>
@@ -49216,7 +49216,7 @@
         <v>9.8759999999999994</v>
       </c>
     </row>
-    <row r="120" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>109</v>
       </c>
@@ -49323,7 +49323,7 @@
         <v>3.8570000000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>55</v>
       </c>
@@ -49430,7 +49430,7 @@
         <v>6.4219999999999997</v>
       </c>
     </row>
-    <row r="122" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>63</v>
       </c>
@@ -49537,7 +49537,7 @@
         <v>6.4880000000000004</v>
       </c>
     </row>
-    <row r="123" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>70</v>
       </c>
@@ -49644,7 +49644,7 @@
         <v>3.464</v>
       </c>
     </row>
-    <row r="124" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>78</v>
       </c>
@@ -49751,7 +49751,7 @@
         <v>3.1419999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>86</v>
       </c>
@@ -49858,7 +49858,7 @@
         <v>7.09</v>
       </c>
     </row>
-    <row r="126" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>94</v>
       </c>
@@ -49965,7 +49965,7 @@
         <v>9.0679999999999996</v>
       </c>
     </row>
-    <row r="127" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>102</v>
       </c>
@@ -50072,7 +50072,7 @@
         <v>10.44</v>
       </c>
     </row>
-    <row r="128" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>110</v>
       </c>
@@ -50179,7 +50179,7 @@
         <v>1.907</v>
       </c>
     </row>
-    <row r="129" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>56</v>
       </c>
@@ -50286,7 +50286,7 @@
         <v>8.1470000000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>64</v>
       </c>
@@ -50393,7 +50393,7 @@
         <v>11.61</v>
       </c>
     </row>
-    <row r="131" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>71</v>
       </c>
@@ -50500,7 +50500,7 @@
         <v>5.3029999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>79</v>
       </c>
@@ -50607,7 +50607,7 @@
         <v>5.859</v>
       </c>
     </row>
-    <row r="133" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>87</v>
       </c>
@@ -50714,7 +50714,7 @@
         <v>4.702</v>
       </c>
     </row>
-    <row r="134" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>95</v>
       </c>
@@ -50821,7 +50821,7 @@
         <v>6.3529999999999998</v>
       </c>
     </row>
-    <row r="135" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>103</v>
       </c>
@@ -50928,7 +50928,7 @@
         <v>9.2449999999999992</v>
       </c>
     </row>
-    <row r="136" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>111</v>
       </c>
@@ -51035,7 +51035,7 @@
         <v>2.6469999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>57</v>
       </c>
@@ -51142,7 +51142,7 @@
         <v>9.5169999999999995</v>
       </c>
     </row>
-    <row r="138" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>65</v>
       </c>
@@ -51249,7 +51249,7 @@
         <v>10.46</v>
       </c>
     </row>
-    <row r="139" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>72</v>
       </c>
@@ -51356,7 +51356,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="140" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>80</v>
       </c>
@@ -51463,7 +51463,7 @@
         <v>4.7629999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>88</v>
       </c>
@@ -51570,7 +51570,7 @@
         <v>6.1120000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>96</v>
       </c>
@@ -51677,7 +51677,7 @@
         <v>6.7149999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>104</v>
       </c>
@@ -51784,7 +51784,7 @@
         <v>4.5650000000000004</v>
       </c>
     </row>
-    <row r="144" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>112</v>
       </c>
@@ -51891,7 +51891,7 @@
         <v>3.4020000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:35" s="106" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:35" s="106" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="107" t="s">
         <v>202</v>
       </c>
@@ -51996,7 +51996,7 @@
       </c>
       <c r="AI145" s="1"/>
     </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C146" s="91"/>
       <c r="D146" s="91"/>
       <c r="E146" s="91"/>
@@ -52033,6 +52033,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="G4:Y4"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:Y2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G3:Y3"/>
     <mergeCell ref="R75:AH75"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="A5:E5"/>
@@ -52043,13 +52050,6 @@
     <mergeCell ref="A9:W9"/>
     <mergeCell ref="E75:L75"/>
     <mergeCell ref="M75:Q75"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="G4:Y4"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G2:Y2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="G3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -52069,66 +52069,66 @@
       <selection pane="bottomRight" activeCell="Q78" sqref="Q78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="111" customWidth="1"/>
-    <col min="2" max="23" width="5.6640625" style="111" customWidth="1"/>
-    <col min="24" max="24" width="6.5" style="50" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" style="111" customWidth="1"/>
-    <col min="26" max="26" width="11.83203125" style="111" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" style="111" customWidth="1"/>
+    <col min="2" max="23" width="5.6328125" style="111" customWidth="1"/>
+    <col min="24" max="24" width="6.453125" style="50" customWidth="1"/>
+    <col min="25" max="25" width="5.6328125" style="111" customWidth="1"/>
+    <col min="26" max="26" width="11.81640625" style="111" customWidth="1"/>
     <col min="27" max="27" width="6" style="111" customWidth="1"/>
-    <col min="28" max="16384" width="9.1640625" style="111"/>
+    <col min="28" max="16384" width="9.1796875" style="111"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="259" t="s">
+    <row r="1" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="253" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="259"/>
-      <c r="J1" s="259"/>
-      <c r="K1" s="259"/>
-      <c r="L1" s="259"/>
-      <c r="M1" s="259"/>
-      <c r="N1" s="259"/>
-      <c r="O1" s="259"/>
-      <c r="P1" s="259"/>
-      <c r="Q1" s="259"/>
-      <c r="R1" s="259"/>
-      <c r="S1" s="259"/>
-      <c r="T1" s="259"/>
-      <c r="U1" s="259"/>
-      <c r="V1" s="259"/>
-      <c r="W1" s="259"/>
-      <c r="X1" s="259"/>
-      <c r="Y1" s="259"/>
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
+      <c r="N1" s="253"/>
+      <c r="O1" s="253"/>
+      <c r="P1" s="253"/>
+      <c r="Q1" s="253"/>
+      <c r="R1" s="253"/>
+      <c r="S1" s="253"/>
+      <c r="T1" s="253"/>
+      <c r="U1" s="253"/>
+      <c r="V1" s="253"/>
+      <c r="W1" s="253"/>
+      <c r="X1" s="253"/>
+      <c r="Y1" s="253"/>
     </row>
-    <row r="2" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="266" t="s">
+    <row r="2" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="260" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="267"/>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="268"/>
-      <c r="G2" s="273" t="s">
+      <c r="B2" s="261"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="261"/>
+      <c r="F2" s="262"/>
+      <c r="G2" s="267" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="274"/>
-      <c r="I2" s="274"/>
-      <c r="J2" s="274"/>
-      <c r="K2" s="274"/>
-      <c r="L2" s="274"/>
-      <c r="M2" s="274"/>
-      <c r="N2" s="274"/>
-      <c r="O2" s="275"/>
+      <c r="H2" s="268"/>
+      <c r="I2" s="268"/>
+      <c r="J2" s="268"/>
+      <c r="K2" s="268"/>
+      <c r="L2" s="268"/>
+      <c r="M2" s="268"/>
+      <c r="N2" s="268"/>
+      <c r="O2" s="269"/>
       <c r="P2" s="113"/>
       <c r="Q2" s="113"/>
       <c r="R2" s="113"/>
@@ -52142,19 +52142,19 @@
       <c r="AA2" s="113"/>
       <c r="AB2" s="113"/>
     </row>
-    <row r="3" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="260" t="s">
+    <row r="3" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="254" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="261"/>
-      <c r="C3" s="261"/>
-      <c r="D3" s="261"/>
-      <c r="E3" s="261"/>
-      <c r="F3" s="262"/>
-      <c r="G3" s="276">
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="270">
         <v>41057</v>
       </c>
-      <c r="H3" s="277"/>
+      <c r="H3" s="271"/>
       <c r="I3" s="113"/>
       <c r="J3" s="113"/>
       <c r="K3" s="113"/>
@@ -52175,21 +52175,21 @@
       <c r="AA3" s="113"/>
       <c r="AB3" s="113"/>
     </row>
-    <row r="4" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="260" t="s">
+    <row r="4" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="254" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="261"/>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="262"/>
-      <c r="G4" s="250" t="s">
+      <c r="B4" s="255"/>
+      <c r="C4" s="255"/>
+      <c r="D4" s="255"/>
+      <c r="E4" s="255"/>
+      <c r="F4" s="256"/>
+      <c r="G4" s="272" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="251"/>
-      <c r="I4" s="251"/>
-      <c r="J4" s="252"/>
+      <c r="H4" s="273"/>
+      <c r="I4" s="273"/>
+      <c r="J4" s="274"/>
       <c r="K4" s="113"/>
       <c r="L4" s="113"/>
       <c r="M4" s="113"/>
@@ -52208,21 +52208,21 @@
       <c r="AA4" s="113"/>
       <c r="AB4" s="113"/>
     </row>
-    <row r="5" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="269" t="s">
+    <row r="5" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="263" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="269"/>
-      <c r="C5" s="269"/>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="263" t="s">
+      <c r="B5" s="263"/>
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="263"/>
+      <c r="F5" s="257" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
-      <c r="J5" s="265"/>
+      <c r="G5" s="258"/>
+      <c r="H5" s="258"/>
+      <c r="I5" s="258"/>
+      <c r="J5" s="259"/>
       <c r="K5" s="113"/>
       <c r="L5" s="113"/>
       <c r="M5" s="113"/>
@@ -52241,123 +52241,123 @@
       <c r="AA5" s="113"/>
       <c r="AB5" s="113"/>
     </row>
-    <row r="6" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="254" t="s">
+    <row r="6" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="276" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="254"/>
-      <c r="C6" s="254"/>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
-      <c r="F6" s="254"/>
-      <c r="G6" s="254"/>
-      <c r="H6" s="254"/>
-      <c r="I6" s="254"/>
-      <c r="J6" s="254"/>
-      <c r="K6" s="254"/>
-      <c r="L6" s="254"/>
-      <c r="M6" s="254"/>
-      <c r="N6" s="254"/>
-      <c r="O6" s="254"/>
-      <c r="P6" s="254"/>
-      <c r="Q6" s="254"/>
-      <c r="R6" s="254"/>
-      <c r="S6" s="254"/>
-      <c r="T6" s="254"/>
-      <c r="U6" s="254"/>
-      <c r="V6" s="254"/>
-      <c r="W6" s="254"/>
-      <c r="X6" s="254"/>
-      <c r="Y6" s="254"/>
+      <c r="B6" s="276"/>
+      <c r="C6" s="276"/>
+      <c r="D6" s="276"/>
+      <c r="E6" s="276"/>
+      <c r="F6" s="276"/>
+      <c r="G6" s="276"/>
+      <c r="H6" s="276"/>
+      <c r="I6" s="276"/>
+      <c r="J6" s="276"/>
+      <c r="K6" s="276"/>
+      <c r="L6" s="276"/>
+      <c r="M6" s="276"/>
+      <c r="N6" s="276"/>
+      <c r="O6" s="276"/>
+      <c r="P6" s="276"/>
+      <c r="Q6" s="276"/>
+      <c r="R6" s="276"/>
+      <c r="S6" s="276"/>
+      <c r="T6" s="276"/>
+      <c r="U6" s="276"/>
+      <c r="V6" s="276"/>
+      <c r="W6" s="276"/>
+      <c r="X6" s="276"/>
+      <c r="Y6" s="276"/>
     </row>
-    <row r="7" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="255" t="s">
+    <row r="7" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="277" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="255"/>
-      <c r="C7" s="255"/>
-      <c r="D7" s="255"/>
-      <c r="E7" s="255"/>
-      <c r="F7" s="255"/>
-      <c r="G7" s="255"/>
-      <c r="H7" s="255"/>
-      <c r="I7" s="255"/>
-      <c r="J7" s="255"/>
-      <c r="K7" s="255"/>
-      <c r="L7" s="255"/>
-      <c r="M7" s="255"/>
-      <c r="N7" s="255"/>
-      <c r="O7" s="255"/>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
-      <c r="T7" s="255"/>
-      <c r="U7" s="255"/>
-      <c r="V7" s="255"/>
-      <c r="W7" s="255"/>
-      <c r="X7" s="255"/>
-      <c r="Y7" s="255"/>
+      <c r="B7" s="277"/>
+      <c r="C7" s="277"/>
+      <c r="D7" s="277"/>
+      <c r="E7" s="277"/>
+      <c r="F7" s="277"/>
+      <c r="G7" s="277"/>
+      <c r="H7" s="277"/>
+      <c r="I7" s="277"/>
+      <c r="J7" s="277"/>
+      <c r="K7" s="277"/>
+      <c r="L7" s="277"/>
+      <c r="M7" s="277"/>
+      <c r="N7" s="277"/>
+      <c r="O7" s="277"/>
+      <c r="P7" s="277"/>
+      <c r="Q7" s="277"/>
+      <c r="R7" s="277"/>
+      <c r="S7" s="277"/>
+      <c r="T7" s="277"/>
+      <c r="U7" s="277"/>
+      <c r="V7" s="277"/>
+      <c r="W7" s="277"/>
+      <c r="X7" s="277"/>
+      <c r="Y7" s="277"/>
     </row>
-    <row r="8" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="254" t="s">
+    <row r="8" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="276" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="254"/>
-      <c r="C8" s="254"/>
-      <c r="D8" s="254"/>
-      <c r="E8" s="254"/>
-      <c r="F8" s="254"/>
-      <c r="G8" s="254"/>
-      <c r="H8" s="254"/>
-      <c r="I8" s="254"/>
-      <c r="J8" s="254"/>
-      <c r="K8" s="254"/>
-      <c r="L8" s="254"/>
-      <c r="M8" s="254"/>
-      <c r="N8" s="254"/>
-      <c r="O8" s="254"/>
-      <c r="P8" s="254"/>
-      <c r="Q8" s="254"/>
-      <c r="R8" s="254"/>
-      <c r="S8" s="254"/>
-      <c r="T8" s="254"/>
-      <c r="U8" s="254"/>
-      <c r="V8" s="254"/>
-      <c r="W8" s="254"/>
-      <c r="X8" s="254"/>
-      <c r="Y8" s="254"/>
+      <c r="B8" s="276"/>
+      <c r="C8" s="276"/>
+      <c r="D8" s="276"/>
+      <c r="E8" s="276"/>
+      <c r="F8" s="276"/>
+      <c r="G8" s="276"/>
+      <c r="H8" s="276"/>
+      <c r="I8" s="276"/>
+      <c r="J8" s="276"/>
+      <c r="K8" s="276"/>
+      <c r="L8" s="276"/>
+      <c r="M8" s="276"/>
+      <c r="N8" s="276"/>
+      <c r="O8" s="276"/>
+      <c r="P8" s="276"/>
+      <c r="Q8" s="276"/>
+      <c r="R8" s="276"/>
+      <c r="S8" s="276"/>
+      <c r="T8" s="276"/>
+      <c r="U8" s="276"/>
+      <c r="V8" s="276"/>
+      <c r="W8" s="276"/>
+      <c r="X8" s="276"/>
+      <c r="Y8" s="276"/>
     </row>
-    <row r="9" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="253" t="s">
+    <row r="9" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="275" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="253"/>
-      <c r="C9" s="253"/>
-      <c r="D9" s="253"/>
-      <c r="E9" s="253"/>
-      <c r="F9" s="253"/>
-      <c r="G9" s="253"/>
-      <c r="H9" s="253"/>
-      <c r="I9" s="253"/>
-      <c r="J9" s="253"/>
-      <c r="K9" s="253"/>
-      <c r="L9" s="253"/>
-      <c r="M9" s="253"/>
-      <c r="N9" s="253"/>
-      <c r="O9" s="253"/>
-      <c r="P9" s="253"/>
-      <c r="Q9" s="253"/>
-      <c r="R9" s="253"/>
-      <c r="S9" s="253"/>
-      <c r="T9" s="253"/>
-      <c r="U9" s="253"/>
-      <c r="V9" s="253"/>
-      <c r="W9" s="253"/>
-      <c r="X9" s="253"/>
-      <c r="Y9" s="253"/>
+      <c r="B9" s="275"/>
+      <c r="C9" s="275"/>
+      <c r="D9" s="275"/>
+      <c r="E9" s="275"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="275"/>
+      <c r="H9" s="275"/>
+      <c r="I9" s="275"/>
+      <c r="J9" s="275"/>
+      <c r="K9" s="275"/>
+      <c r="L9" s="275"/>
+      <c r="M9" s="275"/>
+      <c r="N9" s="275"/>
+      <c r="O9" s="275"/>
+      <c r="P9" s="275"/>
+      <c r="Q9" s="275"/>
+      <c r="R9" s="275"/>
+      <c r="S9" s="275"/>
+      <c r="T9" s="275"/>
+      <c r="U9" s="275"/>
+      <c r="V9" s="275"/>
+      <c r="W9" s="275"/>
+      <c r="X9" s="275"/>
+      <c r="Y9" s="275"/>
     </row>
-    <row r="10" spans="1:28" s="19" customFormat="1" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" s="19" customFormat="1" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>38</v>
       </c>
@@ -52437,7 +52437,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>50</v>
       </c>
@@ -52515,7 +52515,7 @@
       </c>
       <c r="AA11" s="116"/>
     </row>
-    <row r="12" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>58</v>
       </c>
@@ -52593,7 +52593,7 @@
       </c>
       <c r="AA12" s="116"/>
     </row>
-    <row r="13" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>66</v>
       </c>
@@ -52671,7 +52671,7 @@
       </c>
       <c r="AA13" s="116"/>
     </row>
-    <row r="14" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>73</v>
       </c>
@@ -52749,7 +52749,7 @@
       </c>
       <c r="AA14" s="116"/>
     </row>
-    <row r="15" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>81</v>
       </c>
@@ -52827,7 +52827,7 @@
       </c>
       <c r="AA15" s="116"/>
     </row>
-    <row r="16" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>89</v>
       </c>
@@ -52905,7 +52905,7 @@
       </c>
       <c r="AA16" s="116"/>
     </row>
-    <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>97</v>
       </c>
@@ -52983,7 +52983,7 @@
       </c>
       <c r="AA17" s="116"/>
     </row>
-    <row r="18" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>105</v>
       </c>
@@ -53061,7 +53061,7 @@
       </c>
       <c r="AA18" s="116"/>
     </row>
-    <row r="19" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>51</v>
       </c>
@@ -53139,7 +53139,7 @@
       </c>
       <c r="AA19" s="116"/>
     </row>
-    <row r="20" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>59</v>
       </c>
@@ -53217,7 +53217,7 @@
       </c>
       <c r="AA20" s="116"/>
     </row>
-    <row r="21" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>67</v>
       </c>
@@ -53295,7 +53295,7 @@
       </c>
       <c r="AA21" s="116"/>
     </row>
-    <row r="22" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>74</v>
       </c>
@@ -53373,7 +53373,7 @@
       </c>
       <c r="AA22" s="116"/>
     </row>
-    <row r="23" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>82</v>
       </c>
@@ -53451,7 +53451,7 @@
       </c>
       <c r="AA23" s="116"/>
     </row>
-    <row r="24" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>90</v>
       </c>
@@ -53529,7 +53529,7 @@
       </c>
       <c r="AA24" s="116"/>
     </row>
-    <row r="25" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>98</v>
       </c>
@@ -53607,7 +53607,7 @@
       </c>
       <c r="AA25" s="116"/>
     </row>
-    <row r="26" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>106</v>
       </c>
@@ -53685,7 +53685,7 @@
       </c>
       <c r="AA26" s="116"/>
     </row>
-    <row r="27" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>52</v>
       </c>
@@ -53763,7 +53763,7 @@
       </c>
       <c r="AA27" s="116"/>
     </row>
-    <row r="28" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>60</v>
       </c>
@@ -53841,7 +53841,7 @@
       </c>
       <c r="AA28" s="116"/>
     </row>
-    <row r="29" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>29</v>
       </c>
@@ -53919,7 +53919,7 @@
       </c>
       <c r="AA29" s="116"/>
     </row>
-    <row r="30" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>75</v>
       </c>
@@ -53997,7 +53997,7 @@
       </c>
       <c r="AA30" s="116"/>
     </row>
-    <row r="31" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>83</v>
       </c>
@@ -54075,7 +54075,7 @@
       </c>
       <c r="AA31" s="116"/>
     </row>
-    <row r="32" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>91</v>
       </c>
@@ -54153,7 +54153,7 @@
       </c>
       <c r="AA32" s="116"/>
     </row>
-    <row r="33" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>99</v>
       </c>
@@ -54231,7 +54231,7 @@
       </c>
       <c r="AA33" s="116"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>107</v>
       </c>
@@ -54309,7 +54309,7 @@
       </c>
       <c r="AA34" s="116"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>53</v>
       </c>
@@ -54387,7 +54387,7 @@
       </c>
       <c r="AA35" s="116"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>61</v>
       </c>
@@ -54465,7 +54465,7 @@
       </c>
       <c r="AA36" s="116"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>68</v>
       </c>
@@ -54543,7 +54543,7 @@
       </c>
       <c r="AA37" s="116"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>76</v>
       </c>
@@ -54621,7 +54621,7 @@
       </c>
       <c r="AA38" s="116"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>84</v>
       </c>
@@ -54699,7 +54699,7 @@
       </c>
       <c r="AA39" s="116"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
         <v>92</v>
       </c>
@@ -54777,7 +54777,7 @@
       </c>
       <c r="AA40" s="116"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>100</v>
       </c>
@@ -54855,7 +54855,7 @@
       </c>
       <c r="AA41" s="116"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>108</v>
       </c>
@@ -54933,7 +54933,7 @@
       </c>
       <c r="AA42" s="116"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
         <v>54</v>
       </c>
@@ -55011,7 +55011,7 @@
       </c>
       <c r="AA43" s="116"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
         <v>62</v>
       </c>
@@ -55089,7 +55089,7 @@
       </c>
       <c r="AA44" s="116"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
         <v>69</v>
       </c>
@@ -55167,7 +55167,7 @@
       </c>
       <c r="AA45" s="116"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>77</v>
       </c>
@@ -55245,7 +55245,7 @@
       </c>
       <c r="AA46" s="116"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>85</v>
       </c>
@@ -55323,7 +55323,7 @@
       </c>
       <c r="AA47" s="116"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>93</v>
       </c>
@@ -55401,7 +55401,7 @@
       </c>
       <c r="AA48" s="116"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
         <v>101</v>
       </c>
@@ -55479,7 +55479,7 @@
       </c>
       <c r="AA49" s="116"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
         <v>109</v>
       </c>
@@ -55557,7 +55557,7 @@
       </c>
       <c r="AA50" s="116"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>55</v>
       </c>
@@ -55635,7 +55635,7 @@
       </c>
       <c r="AA51" s="116"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
         <v>63</v>
       </c>
@@ -55713,7 +55713,7 @@
       </c>
       <c r="AA52" s="116"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
         <v>70</v>
       </c>
@@ -55791,7 +55791,7 @@
       </c>
       <c r="AA53" s="116"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="17" t="s">
         <v>78</v>
       </c>
@@ -55869,7 +55869,7 @@
       </c>
       <c r="AA54" s="116"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="17" t="s">
         <v>86</v>
       </c>
@@ -55947,7 +55947,7 @@
       </c>
       <c r="AA55" s="116"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="17" t="s">
         <v>94</v>
       </c>
@@ -56025,7 +56025,7 @@
       </c>
       <c r="AA56" s="116"/>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="17" t="s">
         <v>102</v>
       </c>
@@ -56103,7 +56103,7 @@
       </c>
       <c r="AA57" s="116"/>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="17" t="s">
         <v>110</v>
       </c>
@@ -56181,7 +56181,7 @@
       </c>
       <c r="AA58" s="116"/>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
         <v>56</v>
       </c>
@@ -56259,7 +56259,7 @@
       </c>
       <c r="AA59" s="116"/>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="17" t="s">
         <v>64</v>
       </c>
@@ -56337,7 +56337,7 @@
       </c>
       <c r="AA60" s="116"/>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
         <v>71</v>
       </c>
@@ -56415,7 +56415,7 @@
       </c>
       <c r="AA61" s="116"/>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="17" t="s">
         <v>79</v>
       </c>
@@ -56493,7 +56493,7 @@
       </c>
       <c r="AA62" s="116"/>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="17" t="s">
         <v>87</v>
       </c>
@@ -56571,7 +56571,7 @@
       </c>
       <c r="AA63" s="116"/>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="17" t="s">
         <v>95</v>
       </c>
@@ -56649,7 +56649,7 @@
       </c>
       <c r="AA64" s="116"/>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="17" t="s">
         <v>103</v>
       </c>
@@ -56727,7 +56727,7 @@
       </c>
       <c r="AA65" s="116"/>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="17" t="s">
         <v>111</v>
       </c>
@@ -56805,7 +56805,7 @@
       </c>
       <c r="AA66" s="116"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
         <v>57</v>
       </c>
@@ -56883,7 +56883,7 @@
       </c>
       <c r="AA67" s="116"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="17" t="s">
         <v>65</v>
       </c>
@@ -56961,7 +56961,7 @@
       </c>
       <c r="AA68" s="116"/>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="17" t="s">
         <v>72</v>
       </c>
@@ -57039,7 +57039,7 @@
       </c>
       <c r="AA69" s="116"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
         <v>80</v>
       </c>
@@ -57117,7 +57117,7 @@
       </c>
       <c r="AA70" s="116"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
         <v>88</v>
       </c>
@@ -57195,7 +57195,7 @@
       </c>
       <c r="AA71" s="116"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
         <v>96</v>
       </c>
@@ -57273,7 +57273,7 @@
       </c>
       <c r="AA72" s="116"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="17" t="s">
         <v>104</v>
       </c>
@@ -57351,7 +57351,7 @@
       </c>
       <c r="AA73" s="116"/>
     </row>
-    <row r="74" spans="1:27" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="17" t="s">
         <v>112</v>
       </c>
@@ -57430,37 +57430,37 @@
       </c>
       <c r="AA74" s="116"/>
     </row>
-    <row r="75" spans="1:27" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="21"/>
-      <c r="B75" s="256" t="s">
+      <c r="B75" s="250" t="s">
         <v>30</v>
       </c>
-      <c r="C75" s="257"/>
-      <c r="D75" s="258"/>
-      <c r="E75" s="256" t="s">
+      <c r="C75" s="251"/>
+      <c r="D75" s="252"/>
+      <c r="E75" s="250" t="s">
         <v>31</v>
       </c>
-      <c r="F75" s="257"/>
-      <c r="G75" s="257"/>
-      <c r="H75" s="258"/>
-      <c r="I75" s="256" t="s">
+      <c r="F75" s="251"/>
+      <c r="G75" s="251"/>
+      <c r="H75" s="252"/>
+      <c r="I75" s="250" t="s">
         <v>32</v>
       </c>
-      <c r="J75" s="257"/>
-      <c r="K75" s="257"/>
-      <c r="L75" s="257"/>
-      <c r="M75" s="257"/>
-      <c r="N75" s="257"/>
-      <c r="O75" s="257"/>
-      <c r="P75" s="257"/>
-      <c r="Q75" s="257"/>
-      <c r="R75" s="258"/>
-      <c r="S75" s="270" t="s">
+      <c r="J75" s="251"/>
+      <c r="K75" s="251"/>
+      <c r="L75" s="251"/>
+      <c r="M75" s="251"/>
+      <c r="N75" s="251"/>
+      <c r="O75" s="251"/>
+      <c r="P75" s="251"/>
+      <c r="Q75" s="251"/>
+      <c r="R75" s="252"/>
+      <c r="S75" s="264" t="s">
         <v>33</v>
       </c>
-      <c r="T75" s="271"/>
-      <c r="U75" s="271"/>
-      <c r="V75" s="272"/>
+      <c r="T75" s="265"/>
+      <c r="U75" s="265"/>
+      <c r="V75" s="266"/>
       <c r="W75" s="194"/>
       <c r="X75" s="198" t="s">
         <v>231</v>
@@ -57473,7 +57473,7 @@
       </c>
       <c r="AA75" s="195"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="22" t="s">
         <v>29</v>
@@ -57548,7 +57548,7 @@
       </c>
       <c r="AA76" s="117"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>180</v>
@@ -57623,7 +57623,7 @@
       </c>
       <c r="AA77" s="117"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="17" t="s">
         <v>215</v>
       </c>
@@ -57696,7 +57696,7 @@
       <c r="Z78" s="119"/>
       <c r="AA78" s="117"/>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="17" t="s">
         <v>216</v>
       </c>
@@ -57773,7 +57773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:27" s="120" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:27" s="120" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B80" s="121"/>
       <c r="C80" s="121"/>
       <c r="D80" s="121"/>
@@ -57808,7 +57808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="21" t="s">
         <v>50</v>
       </c>
@@ -57887,7 +57887,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="21" t="s">
         <v>58</v>
       </c>
@@ -57966,7 +57966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" s="21" t="s">
         <v>66</v>
       </c>
@@ -58045,7 +58045,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="21" t="s">
         <v>73</v>
       </c>
@@ -58124,7 +58124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="21" t="s">
         <v>81</v>
       </c>
@@ -58198,7 +58198,7 @@
       <c r="Y85" s="17"/>
       <c r="Z85" s="17"/>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="21" t="s">
         <v>89</v>
       </c>
@@ -58272,7 +58272,7 @@
       <c r="Y86" s="17"/>
       <c r="Z86" s="17"/>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="21" t="s">
         <v>97</v>
       </c>
@@ -58346,7 +58346,7 @@
       <c r="Y87" s="17"/>
       <c r="Z87" s="17"/>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="21" t="s">
         <v>105</v>
       </c>
@@ -58420,7 +58420,7 @@
       <c r="Y88" s="17"/>
       <c r="Z88" s="17"/>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" s="21" t="s">
         <v>51</v>
       </c>
@@ -58494,7 +58494,7 @@
       <c r="Y89" s="17"/>
       <c r="Z89" s="17"/>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" s="21" t="s">
         <v>59</v>
       </c>
@@ -58568,7 +58568,7 @@
       <c r="Y90" s="17"/>
       <c r="Z90" s="17"/>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" s="21" t="s">
         <v>67</v>
       </c>
@@ -58642,7 +58642,7 @@
       <c r="Y91" s="17"/>
       <c r="Z91" s="17"/>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="21" t="s">
         <v>74</v>
       </c>
@@ -58716,7 +58716,7 @@
       <c r="Y92" s="17"/>
       <c r="Z92" s="17"/>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="21" t="s">
         <v>82</v>
       </c>
@@ -58790,7 +58790,7 @@
       <c r="Y93" s="17"/>
       <c r="Z93" s="17"/>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="21" t="s">
         <v>90</v>
       </c>
@@ -58864,7 +58864,7 @@
       <c r="Y94" s="17"/>
       <c r="Z94" s="17"/>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="21" t="s">
         <v>98</v>
       </c>
@@ -58938,7 +58938,7 @@
       <c r="Y95" s="17"/>
       <c r="Z95" s="17"/>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="21" t="s">
         <v>106</v>
       </c>
@@ -59012,7 +59012,7 @@
       <c r="Y96" s="17"/>
       <c r="Z96" s="17"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="21" t="s">
         <v>52</v>
       </c>
@@ -59086,7 +59086,7 @@
       <c r="Y97" s="17"/>
       <c r="Z97" s="17"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="21" t="s">
         <v>60</v>
       </c>
@@ -59160,7 +59160,7 @@
       <c r="Y98" s="17"/>
       <c r="Z98" s="17"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="21" t="s">
         <v>29</v>
       </c>
@@ -59234,7 +59234,7 @@
       <c r="Y99" s="17"/>
       <c r="Z99" s="17"/>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" s="21" t="s">
         <v>75</v>
       </c>
@@ -59308,7 +59308,7 @@
       <c r="Y100" s="17"/>
       <c r="Z100" s="17"/>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101" s="21" t="s">
         <v>83</v>
       </c>
@@ -59382,7 +59382,7 @@
       <c r="Y101" s="17"/>
       <c r="Z101" s="17"/>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102" s="21" t="s">
         <v>91</v>
       </c>
@@ -59456,7 +59456,7 @@
       <c r="Y102" s="17"/>
       <c r="Z102" s="17"/>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103" s="21" t="s">
         <v>99</v>
       </c>
@@ -59530,7 +59530,7 @@
       <c r="Y103" s="17"/>
       <c r="Z103" s="17"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104" s="21" t="s">
         <v>107</v>
       </c>
@@ -59604,7 +59604,7 @@
       <c r="Y104" s="17"/>
       <c r="Z104" s="17"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105" s="21" t="s">
         <v>53</v>
       </c>
@@ -59678,7 +59678,7 @@
       <c r="Y105" s="17"/>
       <c r="Z105" s="17"/>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106" s="21" t="s">
         <v>61</v>
       </c>
@@ -59752,7 +59752,7 @@
       <c r="Y106" s="17"/>
       <c r="Z106" s="17"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107" s="21" t="s">
         <v>68</v>
       </c>
@@ -59826,7 +59826,7 @@
       <c r="Y107" s="17"/>
       <c r="Z107" s="17"/>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108" s="21" t="s">
         <v>76</v>
       </c>
@@ -59900,7 +59900,7 @@
       <c r="Y108" s="17"/>
       <c r="Z108" s="17"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109" s="21" t="s">
         <v>84</v>
       </c>
@@ -59974,7 +59974,7 @@
       <c r="Y109" s="17"/>
       <c r="Z109" s="17"/>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110" s="21" t="s">
         <v>92</v>
       </c>
@@ -60048,7 +60048,7 @@
       <c r="Y110" s="17"/>
       <c r="Z110" s="17"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111" s="21" t="s">
         <v>100</v>
       </c>
@@ -60122,7 +60122,7 @@
       <c r="Y111" s="17"/>
       <c r="Z111" s="17"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112" s="21" t="s">
         <v>108</v>
       </c>
@@ -60196,7 +60196,7 @@
       <c r="Y112" s="17"/>
       <c r="Z112" s="17"/>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113" s="21" t="s">
         <v>54</v>
       </c>
@@ -60270,7 +60270,7 @@
       <c r="Y113" s="17"/>
       <c r="Z113" s="17"/>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A114" s="21" t="s">
         <v>62</v>
       </c>
@@ -60344,7 +60344,7 @@
       <c r="Y114" s="17"/>
       <c r="Z114" s="17"/>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A115" s="21" t="s">
         <v>69</v>
       </c>
@@ -60418,7 +60418,7 @@
       <c r="Y115" s="17"/>
       <c r="Z115" s="17"/>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116" s="21" t="s">
         <v>77</v>
       </c>
@@ -60492,7 +60492,7 @@
       <c r="Y116" s="17"/>
       <c r="Z116" s="17"/>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A117" s="21" t="s">
         <v>85</v>
       </c>
@@ -60566,7 +60566,7 @@
       <c r="Y117" s="17"/>
       <c r="Z117" s="17"/>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A118" s="21" t="s">
         <v>93</v>
       </c>
@@ -60640,7 +60640,7 @@
       <c r="Y118" s="17"/>
       <c r="Z118" s="17"/>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A119" s="21" t="s">
         <v>101</v>
       </c>
@@ -60714,7 +60714,7 @@
       <c r="Y119" s="17"/>
       <c r="Z119" s="17"/>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A120" s="21" t="s">
         <v>109</v>
       </c>
@@ -60788,7 +60788,7 @@
       <c r="Y120" s="17"/>
       <c r="Z120" s="17"/>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A121" s="21" t="s">
         <v>55</v>
       </c>
@@ -60862,7 +60862,7 @@
       <c r="Y121" s="17"/>
       <c r="Z121" s="17"/>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A122" s="21" t="s">
         <v>63</v>
       </c>
@@ -60936,7 +60936,7 @@
       <c r="Y122" s="17"/>
       <c r="Z122" s="17"/>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A123" s="21" t="s">
         <v>70</v>
       </c>
@@ -61010,7 +61010,7 @@
       <c r="Y123" s="17"/>
       <c r="Z123" s="17"/>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A124" s="21" t="s">
         <v>78</v>
       </c>
@@ -61084,7 +61084,7 @@
       <c r="Y124" s="17"/>
       <c r="Z124" s="17"/>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A125" s="21" t="s">
         <v>86</v>
       </c>
@@ -61158,7 +61158,7 @@
       <c r="Y125" s="17"/>
       <c r="Z125" s="17"/>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A126" s="21" t="s">
         <v>94</v>
       </c>
@@ -61232,7 +61232,7 @@
       <c r="Y126" s="17"/>
       <c r="Z126" s="17"/>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A127" s="21" t="s">
         <v>102</v>
       </c>
@@ -61306,7 +61306,7 @@
       <c r="Y127" s="17"/>
       <c r="Z127" s="17"/>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A128" s="21" t="s">
         <v>110</v>
       </c>
@@ -61380,7 +61380,7 @@
       <c r="Y128" s="17"/>
       <c r="Z128" s="17"/>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A129" s="21" t="s">
         <v>56</v>
       </c>
@@ -61454,7 +61454,7 @@
       <c r="Y129" s="17"/>
       <c r="Z129" s="17"/>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A130" s="21" t="s">
         <v>64</v>
       </c>
@@ -61528,7 +61528,7 @@
       <c r="Y130" s="17"/>
       <c r="Z130" s="17"/>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A131" s="21" t="s">
         <v>71</v>
       </c>
@@ -61602,7 +61602,7 @@
       <c r="Y131" s="17"/>
       <c r="Z131" s="17"/>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A132" s="21" t="s">
         <v>79</v>
       </c>
@@ -61676,7 +61676,7 @@
       <c r="Y132" s="17"/>
       <c r="Z132" s="17"/>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A133" s="21" t="s">
         <v>87</v>
       </c>
@@ -61750,7 +61750,7 @@
       <c r="Y133" s="17"/>
       <c r="Z133" s="17"/>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A134" s="21" t="s">
         <v>95</v>
       </c>
@@ -61824,7 +61824,7 @@
       <c r="Y134" s="17"/>
       <c r="Z134" s="17"/>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A135" s="21" t="s">
         <v>103</v>
       </c>
@@ -61898,7 +61898,7 @@
       <c r="Y135" s="17"/>
       <c r="Z135" s="17"/>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A136" s="21" t="s">
         <v>111</v>
       </c>
@@ -61972,7 +61972,7 @@
       <c r="Y136" s="17"/>
       <c r="Z136" s="17"/>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A137" s="21" t="s">
         <v>57</v>
       </c>
@@ -62046,7 +62046,7 @@
       <c r="Y137" s="17"/>
       <c r="Z137" s="17"/>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A138" s="21" t="s">
         <v>65</v>
       </c>
@@ -62120,7 +62120,7 @@
       <c r="Y138" s="17"/>
       <c r="Z138" s="17"/>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A139" s="21" t="s">
         <v>72</v>
       </c>
@@ -62194,7 +62194,7 @@
       <c r="Y139" s="17"/>
       <c r="Z139" s="17"/>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A140" s="21" t="s">
         <v>80</v>
       </c>
@@ -62268,7 +62268,7 @@
       <c r="Y140" s="17"/>
       <c r="Z140" s="17"/>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A141" s="21" t="s">
         <v>88</v>
       </c>
@@ -62342,7 +62342,7 @@
       <c r="Y141" s="17"/>
       <c r="Z141" s="17"/>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A142" s="21" t="s">
         <v>96</v>
       </c>
@@ -62416,7 +62416,7 @@
       <c r="Y142" s="17"/>
       <c r="Z142" s="17"/>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A143" s="21" t="s">
         <v>104</v>
       </c>
@@ -62490,7 +62490,7 @@
       <c r="Y143" s="17"/>
       <c r="Z143" s="17"/>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A144" s="21" t="s">
         <v>112</v>
       </c>
@@ -62564,7 +62564,7 @@
       <c r="Y144" s="17"/>
       <c r="Z144" s="17"/>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A145" s="120" t="s">
         <v>113</v>
       </c>
@@ -62636,7 +62636,7 @@
       <c r="Y145" s="17"/>
       <c r="Z145" s="17"/>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A146" s="129"/>
       <c r="B146" s="129"/>
       <c r="C146" s="129"/>
@@ -62663,6 +62663,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A8:Y8"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="E75:H75"/>
     <mergeCell ref="I75:R75"/>
@@ -62679,7 +62680,6 @@
     <mergeCell ref="A9:Y9"/>
     <mergeCell ref="A6:Y6"/>
     <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A8:Y8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -62689,21 +62689,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E0C724CCBB7FB24794473D558C897B81" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86d9b256e064198c05d6efa412f72bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="14f82cd5-dea2-47e7-b602-401f39b9480a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d018442e514e3a48a93ea56c159054e" ns2:_="">
     <xsd:import namespace="14f82cd5-dea2-47e7-b602-401f39b9480a"/>
@@ -62849,24 +62834,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62D1CF32-7541-40B5-852B-B4B26370023B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACCDBC5F-95D1-46C7-AA07-01D091AA3C8B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D025D74-09DA-4DC5-9E68-87E7F450974C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -62882,4 +62865,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACCDBC5F-95D1-46C7-AA07-01D091AA3C8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62D1CF32-7541-40B5-852B-B4B26370023B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>